--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail0 Features.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,115 +544,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -671,72 +659,66 @@
         <v>8.1954234700137e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.529642576507179</v>
+        <v>5.487894471851704e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>13.33113718889989</v>
+        <v>7.189082186476185e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.487894471851704e-06</v>
+        <v>-0.1117272989827227</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.189082186476185e-06</v>
+        <v>0.3041178425506634</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1117272989827227</v>
+        <v>0.1046876343955332</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3041178425506634</v>
+        <v>1.921259395496511</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1046876343955332</v>
+        <v>2.818299897964217</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.942811451466344</v>
+        <v>4.736325549767</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.818299897964217</v>
+        <v>4.239137666406833e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.736325549767</v>
+        <v>1223290519.705133</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.239137666406833e-16</v>
+        <v>9.858355997774611e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1223290519.705133</v>
+        <v>634.3613879126261</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.858355997774611e-08</v>
+        <v>0.0001205971262672348</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>634.3613879126261</v>
+        <v>8.454767368252183</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001205971262672348</v>
+        <v>1.19982112296909</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.454767368252183</v>
+        <v>0.008620655381600704</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.19982112296909</v>
+        <v>3.401423673341919</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008620655381600704</v>
+        <v>0.9567269662461381</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.401423673341919</v>
+        <v>1.157273005818159</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9567269662461381</v>
+        <v>186</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.157273005818159</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>186</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.464909298325199</v>
       </c>
     </row>
@@ -751,72 +733,66 @@
         <v>6.116261477659687e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.32776533625601</v>
+        <v>4.085618167087843e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>12.16344749159858</v>
+        <v>7.109950083569597e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.085618167087843e-06</v>
+        <v>-0.1114460600338717</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.109950083569597e-06</v>
+        <v>0.2932062471479115</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1114460600338717</v>
+        <v>0.09814314675007299</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2932062471479115</v>
+        <v>1.929383182723905</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09814314675007299</v>
+        <v>2.893010364462903</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.94120242202878</v>
+        <v>4.756412803715904</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.893010364462903</v>
+        <v>4.203407871585228e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.756412803715904</v>
+        <v>1228706765.087116</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.203407871585228e-16</v>
+        <v>9.837191272090838e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1228706765.087116</v>
+        <v>634.5970254159212</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.837191272090838e-08</v>
+        <v>0.000121649396017691</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>634.5970254159212</v>
+        <v>7.720400113629725</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000121649396017691</v>
+        <v>1.356589828257058</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.720400113629725</v>
+        <v>0.007250860903192448</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.356589828257058</v>
+        <v>3.489541106624413</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.007250860903192448</v>
+        <v>0.9584390117813163</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.489541106624413</v>
+        <v>1.169394112348143</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9584390117813163</v>
+        <v>172</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.169394112348143</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>172</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.364881426911468</v>
       </c>
     </row>
@@ -831,72 +807,66 @@
         <v>4.649016696094317e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.014408101447885</v>
+        <v>3.075550145776164e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>10.44550482014633</v>
+        <v>7.050734007731723e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.075550145776164e-06</v>
+        <v>-0.1103662764005024</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.050734007731723e-06</v>
+        <v>0.2769450120581665</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1103662764005024</v>
+        <v>0.08865614052005623</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2769450120581665</v>
+        <v>1.933043781872223</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08865614052005623</v>
+        <v>3.0355646119098</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.945127644262986</v>
+        <v>4.756912357376233</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.0355646119098</v>
+        <v>4.202525064683515e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.756912357376233</v>
+        <v>1168120135.36559</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.202525064683515e-16</v>
+        <v>1.031173239292028e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1168120135.36559</v>
+        <v>573.4364995219241</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.031173239292028e-07</v>
+        <v>0.0001305101135713846</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>573.4364995219241</v>
+        <v>8.100822969031826</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001305101135713846</v>
+        <v>1.416755569681413</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.100822969031826</v>
+        <v>0.008564508613475486</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.416755569681413</v>
+        <v>3.391538171650812</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008564508613475486</v>
+        <v>0.9579774430529368</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.391538171650812</v>
+        <v>1.181280414678738</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9579774430529368</v>
+        <v>155</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.181280414678738</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>155</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.309271404034247</v>
       </c>
     </row>
@@ -911,72 +881,66 @@
         <v>3.631347073439122e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.571005515050085</v>
+        <v>2.348528706854948e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>8.208923689477455</v>
+        <v>7.005865758536948e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.348528706854948e-06</v>
+        <v>-0.1078889861044212</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.005865758536948e-06</v>
+        <v>0.2538444293504576</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1078889861044212</v>
+        <v>0.0758871474077739</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2538444293504576</v>
+        <v>1.928456930397199</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0758871474077739</v>
+        <v>2.753005749207721</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.944527295950274</v>
+        <v>4.674472436502894</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.753005749207721</v>
+        <v>4.352065326336211e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.674472436502894</v>
+        <v>1143055023.773838</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.352065326336211e-16</v>
+        <v>1.053822111613335e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1143055023.773838</v>
+        <v>568.6298828398145</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.053822111613335e-07</v>
+        <v>0.000131900248772984</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>568.6298828398145</v>
+        <v>8.445507193071947</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000131900248772984</v>
+        <v>1.40412505306894</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.445507193071947</v>
+        <v>0.009407995195720605</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.40412505306894</v>
+        <v>3.376451923612063</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009407995195720605</v>
+        <v>0.9589975791252049</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.376451923612063</v>
+        <v>1.16756082475571</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9589975791252049</v>
+        <v>128</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.16756082475571</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.394295049122358</v>
       </c>
     </row>
@@ -991,72 +955,66 @@
         <v>2.941309971875107e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.018207465764065</v>
+        <v>1.829195764409261e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>5.737797610223176</v>
+        <v>6.971299959446185e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.829195764409261e-06</v>
+        <v>-0.1037356834156119</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.971299959446185e-06</v>
+        <v>0.2252456615047357</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1037356834156119</v>
+        <v>0.06135139443442701</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2252456615047357</v>
+        <v>1.930185258159784</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.06135139443442701</v>
+        <v>2.612178952802588</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.944502717667548</v>
+        <v>4.612112644375754</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.612178952802588</v>
+        <v>4.589736477087332e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.612112644375754</v>
+        <v>1114819143.809487</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.589736477087332e-16</v>
+        <v>1.082588232330004e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1114819143.809487</v>
+        <v>570.4224198424419</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.082588232330004e-07</v>
+        <v>0.0001213277016101187</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>570.4224198424419</v>
+        <v>8.398366928296891</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001213277016101187</v>
+        <v>1.417461277135788</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.398366928296891</v>
+        <v>0.008557554250331752</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.417461277135788</v>
+        <v>3.572869089240793</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008557554250331752</v>
+        <v>0.9596125804707787</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.572869089240793</v>
+        <v>1.160868163138559</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9596125804707787</v>
+        <v>132</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.160868163138559</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>132</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.834469213639381</v>
       </c>
     </row>
@@ -1071,72 +1029,66 @@
         <v>2.481765203053424e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.412579136143137</v>
+        <v>1.461639629692044e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.379798081128138</v>
+        <v>6.94404753364689e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.461639629692044e-06</v>
+        <v>-0.09822934068533477</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.94404753364689e-06</v>
+        <v>0.1962300628226263</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.09822934068533477</v>
+        <v>0.04805206238285972</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1962300628226263</v>
+        <v>1.929832341429012</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04805206238285972</v>
+        <v>2.758264139595379</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.944512316747102</v>
+        <v>4.80181957173655</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.758264139595379</v>
+        <v>5.396750105741833e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.80181957173655</v>
+        <v>958823763.8715577</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.396750105741833e-16</v>
+        <v>1.258679314311076e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>958823763.8715577</v>
+        <v>496.1464487320011</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.258679314311076e-07</v>
+        <v>0.0001119798498955397</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>496.1464487320011</v>
+        <v>8.759980727790881</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001119798498955397</v>
+        <v>1.509735906581758</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.759980727790881</v>
+        <v>0.008593027119489598</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.509735906581758</v>
+        <v>3.896535993304516</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008593027119489598</v>
+        <v>0.960498025290334</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.896535993304516</v>
+        <v>1.178546272865405</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.960498025290334</v>
+        <v>132</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.178546272865405</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>132</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.573705025906683</v>
       </c>
     </row>
@@ -1151,72 +1103,66 @@
         <v>2.180694259002467e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.8352333734956866</v>
+        <v>1.193383296782932e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.413934050353079</v>
+        <v>6.922033004357213e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.193383296782932e-06</v>
+        <v>-0.0912670239084603</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.922033004357213e-06</v>
+        <v>0.1672410319390684</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.0912670239084603</v>
+        <v>0.03622564902669199</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1672410319390684</v>
+        <v>1.929082362066329</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03622564902669199</v>
+        <v>2.417373255270915</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.944378034609466</v>
+        <v>4.907310570023806</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.417373255270915</v>
+        <v>5.167219319121973e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.907310570023806</v>
+        <v>1015101194.793921</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.167219319121973e-16</v>
+        <v>1.192402965476084e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1015101194.793921</v>
+        <v>532.4460054215865</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.192402965476084e-07</v>
+        <v>9.923430693004104e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>532.4460054215865</v>
+        <v>7.678250257016815</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>9.923430693004104e-05</v>
+        <v>1.753118942903432</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.678250257016815</v>
+        <v>0.005850410862471019</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.753118942903432</v>
+        <v>4.244522379329608</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.005850410862471019</v>
+        <v>0.9619636106055685</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.244522379329608</v>
+        <v>1.120824921236625</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9619636106055685</v>
+        <v>134</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.120824921236625</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>2.941642089283884</v>
       </c>
     </row>
@@ -1231,72 +1177,66 @@
         <v>1.990806213751424e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3750891489972917</v>
+        <v>9.943114651785888e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.05358680977388275</v>
+        <v>6.903885763288637e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.943114651785888e-07</v>
+        <v>-0.08329112126126854</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.903885763288637e-06</v>
+        <v>0.1377674236723421</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.08329112126126854</v>
+        <v>0.02586675730790695</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1377674236723421</v>
+        <v>1.928035731357576</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02586675730790695</v>
+        <v>2.399593087150476</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.944198019614676</v>
+        <v>4.7923121003895</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.399593087150476</v>
+        <v>4.455204637245152e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.7923121003895</v>
+        <v>1163690962.704091</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.455204637245152e-16</v>
+        <v>1.037786637122354e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1163690962.704091</v>
+        <v>603.3134120486188</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.037786637122354e-07</v>
+        <v>0.0001058239544830261</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>603.3134120486188</v>
+        <v>7.927140220805533</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001058239544830261</v>
+        <v>1.550466209172532</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.927140220805533</v>
+        <v>0.00664992989908077</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.550466209172532</v>
+        <v>4.103508168791812</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00664992989908077</v>
+        <v>0.962765039498196</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.103508168791812</v>
+        <v>1.194237447111214</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.962765039498196</v>
+        <v>134</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.194237447111214</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>2.75759088784856</v>
       </c>
     </row>
@@ -1311,72 +1251,66 @@
         <v>1.8786536499701e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.07334771364810011</v>
+        <v>8.482187949427087e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.7160594856332283</v>
+        <v>6.888595729487069e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>8.482187949427087e-07</v>
+        <v>-0.07529024925566535</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.888595729487069e-06</v>
+        <v>0.1100517432402972</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.07529024925566535</v>
+        <v>0.01774788192729733</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1100517432402972</v>
+        <v>1.935200172491156</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01774788192729733</v>
+        <v>2.71017760482723</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.948663654056452</v>
+        <v>4.700994590949671</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.71017760482723</v>
+        <v>4.336056635146403e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.700994590949671</v>
+        <v>1192016538.738586</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.336056635146403e-16</v>
+        <v>1.01554974766012e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1192016538.738586</v>
+        <v>616.1117739597423</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.01554974766012e-07</v>
+        <v>0.0001125261524920088</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>616.1117739597423</v>
+        <v>7.870408731173471</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001125261524920088</v>
+        <v>1.480806405383467</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.870408731173471</v>
+        <v>0.00697024500205667</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.480806405383467</v>
+        <v>3.818353385429953</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.00697024500205667</v>
+        <v>0.9632110364180838</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.818353385429953</v>
+        <v>1.19086449466729</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9632110364180838</v>
+        <v>134</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.19086449466729</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.937517896949928</v>
       </c>
     </row>
@@ -1391,72 +1325,66 @@
         <v>1.81861339338818e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.08988565882923896</v>
+        <v>7.443118833182132e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.085074376470163</v>
+        <v>6.875378306396008e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.443118833182132e-07</v>
+        <v>-0.06824196375998355</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.875378306396008e-06</v>
+        <v>0.08776853005561631</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06824196375998355</v>
+        <v>0.01234244525816222</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08776853005561631</v>
+        <v>1.935544948565011</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01234244525816222</v>
+        <v>2.879785828929111</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.947490619881096</v>
+        <v>4.587455475849051</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.879785828929111</v>
+        <v>4.553346754049539e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.587455475849051</v>
+        <v>1123363262.582537</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.553346754049539e-16</v>
+        <v>1.079286243461426e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1123363262.582537</v>
+        <v>574.6073259331414</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.079286243461426e-07</v>
+        <v>0.0001165946480561485</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>574.6073259331414</v>
+        <v>7.646086731758181</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001165946480561485</v>
+        <v>1.321587446135444</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.646086731758181</v>
+        <v>0.006816431204516635</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.321587446135444</v>
+        <v>3.548415680651407</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006816431204516635</v>
+        <v>0.9633346383492236</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.548415680651407</v>
+        <v>1.161044063078459</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9633346383492236</v>
+        <v>115</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.161044063078459</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>1.275821678573486</v>
       </c>
     </row>
@@ -1471,72 +1399,66 @@
         <v>1.791090720629706e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.1632306971895213</v>
+        <v>6.75968036879778e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.249621377814332</v>
+        <v>6.863586171962111e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.75968036879778e-07</v>
+        <v>-0.06292093273937129</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.863586171962111e-06</v>
+        <v>0.07399634026504179</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06292093273937129</v>
+        <v>0.00942598970953273</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.07399634026504179</v>
+        <v>1.941391048619462</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.00942598970953273</v>
+        <v>2.855261050973295</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.953653444210203</v>
+        <v>4.609426693045307</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.855261050973295</v>
+        <v>4.510042392567452e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.609426693045307</v>
+        <v>1146156800.222171</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.510042392567452e-16</v>
+        <v>1.059164575613744e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1146156800.222171</v>
+        <v>592.4731792310273</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.059164575613744e-07</v>
+        <v>0.0001231798101945997</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>592.4731792310273</v>
+        <v>8.406346552968637</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001231798101945997</v>
+        <v>1.26561581858884</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.406346552968637</v>
+        <v>0.008704706057650955</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.26561581858884</v>
+        <v>3.307777407050794</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008704706057650955</v>
+        <v>0.9629863075001721</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.307777407050794</v>
+        <v>1.17215628080114</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9629863075001721</v>
+        <v>134</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.17215628080114</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>1.056793832297051</v>
       </c>
     </row>
@@ -1551,72 +1473,66 @@
         <v>1.782593599505302e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1879090081984785</v>
+        <v>6.311606867745802e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.325275928704164</v>
+        <v>6.852715494741317e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.311606867745802e-07</v>
+        <v>-0.05902504181116131</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.852715494741317e-06</v>
+        <v>0.06668058888102209</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05902504181116131</v>
+        <v>0.007925771185579822</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.06668058888102209</v>
+        <v>1.937392156054695</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.007925771185579822</v>
+        <v>2.708048021714776</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.949827364722961</v>
+        <v>4.577830387148762</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.708048021714776</v>
+        <v>4.572514104565885e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.577830387148762</v>
+        <v>1052472564.355473</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.572514104565885e-16</v>
+        <v>1.146818658357101e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1052472564.355473</v>
+        <v>506.4967009008163</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.146818658357101e-07</v>
+        <v>0.0001305685259665228</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>506.4967009008163</v>
+        <v>9.036014043633831</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001305685259665228</v>
+        <v>1.280744425196419</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.036014043633831</v>
+        <v>0.01066086136279156</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.280744425196419</v>
+        <v>3.208276412224986</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01066086136279156</v>
+        <v>0.9629422799563779</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.208276412224986</v>
+        <v>1.185291375114963</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9629422799563779</v>
+        <v>109</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.185291375114963</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>1.043490060632519</v>
       </c>
     </row>
@@ -1631,72 +1547,66 @@
         <v>1.785499034473565e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.1852619024295001</v>
+        <v>5.974623797081524e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.360470742645437</v>
+        <v>6.842487268119879e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.974623797081524e-07</v>
+        <v>-0.05577988278888991</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.842487268119879e-06</v>
+        <v>0.06219257834322553</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05577988278888991</v>
+        <v>0.006976484126774557</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.06219257834322553</v>
+        <v>1.934196428607031</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.006976484126774557</v>
+        <v>2.885888912563258</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.948895349895185</v>
+        <v>4.566554202333603</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.885888912563258</v>
+        <v>4.595123788354664e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.566554202333603</v>
+        <v>1041383839.432085</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.595123788354664e-16</v>
+        <v>1.156797617861885e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1041383839.432085</v>
+        <v>498.332122926641</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.156797617861885e-07</v>
+        <v>0.0001376919723170919</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>498.332122926641</v>
+        <v>8.848952291290267</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001376919723170919</v>
+        <v>1.338150442153215</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.848952291290267</v>
+        <v>0.0107818262318568</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.338150442153215</v>
+        <v>3.353043189736181</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0107818262318568</v>
+        <v>0.9627721819987592</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.353043189736181</v>
+        <v>1.172487839551063</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9627721819987592</v>
+        <v>99</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.172487839551063</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.114967912718517</v>
       </c>
     </row>
@@ -1711,72 +1621,66 @@
         <v>1.795840122605253e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1653958573156667</v>
+        <v>5.689490983513287e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.375219657765607</v>
+        <v>6.832771688472131e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.689490983513287e-07</v>
+        <v>-0.05281074140918686</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.832771688472131e-06</v>
+        <v>0.05877869917924732</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05281074140918686</v>
+        <v>0.006241777152703726</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.05877869917924732</v>
+        <v>1.930708473252103</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.006241777152703726</v>
+        <v>2.695795456748846</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.946560714363469</v>
+        <v>4.558579333315611</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.695795456748846</v>
+        <v>4.611215452815348e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.558579333315611</v>
+        <v>1073860840.347777</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.611215452815348e-16</v>
+        <v>1.125104781142074e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1073860840.347777</v>
+        <v>531.75480837917</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.125104781142074e-07</v>
+        <v>0.0001497510324203902</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>531.75480837917</v>
+        <v>8.96499454093011</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001497510324203902</v>
+        <v>1.405899204989091</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.96499454093011</v>
+        <v>0.01203565926284669</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.405899204989091</v>
+        <v>3.386132865856404</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01203565926284669</v>
+        <v>0.9639793113263211</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.386132865856404</v>
+        <v>1.173615993317522</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9639793113263211</v>
+        <v>88</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.173615993317522</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.207671906152942</v>
       </c>
     </row>
@@ -1791,72 +1695,66 @@
         <v>1.811446910215578e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.1339511709026594</v>
+        <v>5.58471684128173e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.379250862480045</v>
+        <v>6.8235097030902e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.58471684128173e-07</v>
+        <v>-0.04995079226645509</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.8235097030902e-06</v>
+        <v>0.05593249532923069</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04995079226645509</v>
+        <v>0.005622027591120777</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.05593249532923069</v>
+        <v>1.932413186767745</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.005622027591120777</v>
+        <v>2.576644546277942</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.945545091660563</v>
+        <v>4.594106204865704</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.576644546277942</v>
+        <v>4.540172850726892e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.594106204865704</v>
+        <v>1098035948.344632</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.540172850726892e-16</v>
+        <v>1.098889077219362e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1098035948.344632</v>
+        <v>547.4008968284463</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.098889077219362e-07</v>
+        <v>0.0001448692935960507</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>547.4008968284463</v>
+        <v>9.306476356942124</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001448692935960507</v>
+        <v>1.292723464852848</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.306476356942124</v>
+        <v>0.0125472022691523</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.292723464852848</v>
+        <v>3.341537162666312</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0125472022691523</v>
+        <v>0.9637715757109567</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.341537162666312</v>
+        <v>1.178658758678187</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9637715757109567</v>
+        <v>88</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.178658758678187</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.121803251543698</v>
       </c>
     </row>
@@ -1871,72 +1769,66 @@
         <v>1.830196226001043e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.09456871890300686</v>
+        <v>5.61419518729741e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.378984298921359</v>
+        <v>6.814663729298013e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.61419518729741e-07</v>
+        <v>-0.04727513004886583</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.814663729298013e-06</v>
+        <v>0.05405973609201738</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04727513004886583</v>
+        <v>0.005156638555012887</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.05405973609201738</v>
+        <v>1.932988332914821</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.005156638555012887</v>
+        <v>2.763496205205642</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.949468944110415</v>
+        <v>4.678098476271215</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.763496205205642</v>
+        <v>5.392143146862132e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.678098476271215</v>
+        <v>983615024.429145</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.392143146862132e-16</v>
+        <v>1.232961221632905e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>983615024.429145</v>
+        <v>521.6890494173298</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.232961221632905e-07</v>
+        <v>0.0001348076254556876</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>521.6890494173298</v>
+        <v>9.748952059108534</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001348076254556876</v>
+        <v>1.161623903147657</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.748952059108534</v>
+        <v>0.01281239526967203</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.161623903147657</v>
+        <v>3.223526028288274</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01281239526967203</v>
+        <v>0.9655603066012516</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.223526028288274</v>
+        <v>1.126139519655747</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9655603066012516</v>
+        <v>79</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.126139519655747</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.070822318789435</v>
       </c>
     </row>
@@ -1951,72 +1843,66 @@
         <v>1.849430954969971e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.04914265607629922</v>
+        <v>5.614574837720516e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.378210224879902</v>
+        <v>6.806198437386543e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.614574837720516e-07</v>
+        <v>-0.04476289866815674</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6.806198437386543e-06</v>
+        <v>0.05344218222305498</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04476289866815674</v>
+        <v>0.004859452981608722</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.05344218222305498</v>
+        <v>1.931789215516755</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.004859452981608722</v>
+        <v>2.516741731570187</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.947894798671476</v>
+        <v>4.588940344284197</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.516741731570187</v>
+        <v>7.146583034466274e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.588940344284197</v>
+        <v>738577412.474122</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>7.146583034466274e-16</v>
+        <v>1.643018486245293e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>738577412.474122</v>
+        <v>389.8436705590127</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.643018486245293e-07</v>
+        <v>0.0001281053759394048</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>389.8436705590127</v>
+        <v>9.507930158386442</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001281053759394048</v>
+        <v>1.118195826149088</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.507930158386442</v>
+        <v>0.01158082025725257</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.118195826149088</v>
+        <v>3.232476058136112</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01158082025725257</v>
+        <v>0.9653299821896518</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.232476058136112</v>
+        <v>1.149820440826888</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9653299821896518</v>
+        <v>69</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.149820440826888</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.116365475937432</v>
       </c>
     </row>
@@ -2031,72 +1917,66 @@
         <v>1.866577390148141e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.001844326192388017</v>
+        <v>5.614574837720516e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.37740964043094</v>
+        <v>6.798098634011956e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.614574837720516e-07</v>
+        <v>-0.04250732611708721</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6.798098634011956e-06</v>
+        <v>0.05382624554692376</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04250732611708721</v>
+        <v>0.004704087064711952</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.05382624554692376</v>
+        <v>1.925175655726848</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.004704087064711952</v>
+        <v>2.714773204205798</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.931639584241299</v>
+        <v>4.509125902802245</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.714773204205798</v>
+        <v>7.692301246978096e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.509125902802245</v>
+        <v>686948310.3677447</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>7.692301246978096e-16</v>
+        <v>1.764584626208415e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>686948310.3677447</v>
+        <v>362.9981428593508</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.764584626208415e-07</v>
+        <v>0.0001334986503975059</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>362.9981428593508</v>
+        <v>9.057629500294304</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001334986503975059</v>
+        <v>1.250523973987077</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.057629500294304</v>
+        <v>0.01095231634170554</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.250523973987077</v>
+        <v>3.404967964376809</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01095231634170554</v>
+        <v>0.9650288027223279</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.404967964376809</v>
+        <v>1.232163973033519</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9650288027223279</v>
+        <v>43</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.232163973033519</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>1.18332417811372</v>
       </c>
     </row>
@@ -2111,72 +1991,66 @@
         <v>1.880622795086522e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.05685708358262167</v>
+        <v>5.614574837720516e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.373134794915843</v>
+        <v>6.790270823844389e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.614574837720516e-07</v>
+        <v>-0.04124792252486105</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6.790270823844389e-06</v>
+        <v>0.05398744114487063</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04124792252486105</v>
+        <v>0.004616229014994391</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.05398744114487063</v>
+        <v>1.91738570522329</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.004616229014994391</v>
+        <v>2.385571154908714</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.923314110697888</v>
+        <v>4.724428262519806</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.385571154908714</v>
+        <v>1.182407602518085e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.724428262519806</v>
+        <v>440635754.4382766</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.182407602518085e-15</v>
+        <v>2.746443249090801e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>440635754.4382766</v>
+        <v>229.5761041328025</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.746443249090801e-07</v>
+        <v>0.0001653522639576228</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>229.5761041328025</v>
+        <v>8.440424563393773</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001653522639576228</v>
+        <v>1.697315501329582</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.440424563393773</v>
+        <v>0.01177982207816695</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.697315501329582</v>
+        <v>3.399900494375368</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01177982207816695</v>
+        <v>0.9643185624080578</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.399900494375368</v>
+        <v>1.337564553577214</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9643185624080578</v>
+        <v>39</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.337564553577214</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>1.170750577863613</v>
       </c>
     </row>
@@ -2191,72 +2065,66 @@
         <v>1.892087362093378e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.1133610175854778</v>
+        <v>5.614574837720516e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.36121570140539</v>
+        <v>6.782508377009092e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.614574837720516e-07</v>
+        <v>-0.04122871984133217</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6.782508377009092e-06</v>
+        <v>0.05353571337149308</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04122871984133217</v>
+        <v>0.004566015326152019</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.05353571337149308</v>
+        <v>1.914925985944071</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.004566015326152019</v>
+        <v>2.287239559745684</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.922402268095394</v>
+        <v>4.233077660740198</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.287239559745684</v>
+        <v>1.472832160722994e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.233077660740198</v>
+        <v>344607552.6413071</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.472832160722994e-15</v>
+        <v>3.505183445098484e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>344607552.6413071</v>
+        <v>174.9052484952167</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.505183445098484e-07</v>
+        <v>0.0001604790382197369</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>174.9052484952167</v>
+        <v>8.385686443272387</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001604790382197369</v>
+        <v>1.647252023406177</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.385686443272387</v>
+        <v>0.01128484378166584</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.647252023406177</v>
+        <v>3.295213458698723</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01128484378166584</v>
+        <v>0.9630733159768654</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.295213458698723</v>
+        <v>1.331700051164025</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9630733159768654</v>
+        <v>35</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.331700051164025</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.8924878599239709</v>
       </c>
     </row>
@@ -2271,72 +2139,66 @@
         <v>1.901275713256414e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.1694804282520445</v>
+        <v>5.614574837720516e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.339001711527908</v>
+        <v>6.774602034026227e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.614574837720516e-07</v>
+        <v>-0.04229693184733938</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.774602034026227e-06</v>
+        <v>0.05244472774880599</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04229693184733938</v>
+        <v>0.004539346616355171</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.05244472774880599</v>
+        <v>1.911643890915785</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.004539346616355171</v>
+        <v>2.277923723905813</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.920154543239805</v>
+        <v>4.254939470623709</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.277923723905813</v>
+        <v>1.457736266403471e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.254939470623709</v>
+        <v>349344581.093834</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.457736266403471e-15</v>
+        <v>3.451707133126813e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>349344581.093834</v>
+        <v>177.904519303497</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.451707133126813e-07</v>
+        <v>0.0001409726451311983</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>177.904519303497</v>
+        <v>9.062902648417058</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001409726451311983</v>
+        <v>1.200336856724009</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.062902648417058</v>
+        <v>0.01157895799737494</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.200336856724009</v>
+        <v>3.108400864667082</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01157895799737494</v>
+        <v>0.9628128921101912</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.108400864667082</v>
+        <v>1.329999308041214</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9628128921101912</v>
+        <v>35</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.329999308041214</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.6487300518469763</v>
       </c>
     </row>
@@ -2351,72 +2213,66 @@
         <v>1.907317038982294e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.223782336272566</v>
+        <v>5.713407198955814e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.304806698419356</v>
+        <v>6.766362333145721e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.713407198955814e-07</v>
+        <v>-0.04435592715849521</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>6.766362333145721e-06</v>
+        <v>0.04998540005860858</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04435592715849521</v>
+        <v>0.004465443190510492</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.04998540005860858</v>
+        <v>1.91412847900529</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.004465443190510492</v>
+        <v>2.418107831787531</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.926638566423714</v>
+        <v>4.294529961928264</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.418107831787531</v>
+        <v>1.43098294299584e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.294529961928264</v>
+        <v>347598213.7773731</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.43098294299584e-15</v>
+        <v>3.462894471727946e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>347598213.7773731</v>
+        <v>172.8978246702563</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.462894471727946e-07</v>
+        <v>0.0001438485824853041</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>172.8978246702563</v>
+        <v>9.704754648751363</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001438485824853041</v>
+        <v>1.156395066424633</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.704754648751363</v>
+        <v>0.01354798499795395</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.156395066424633</v>
+        <v>2.861550681753947</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01354798499795395</v>
+        <v>0.9619084836702458</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.861550681753947</v>
+        <v>1.326984491579706</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9619084836702458</v>
+        <v>41</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.326984491579706</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.521485400872773</v>
       </c>
     </row>
@@ -2431,72 +2287,66 @@
         <v>1.908230646883297e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.2748250784141419</v>
+        <v>5.80679603421382e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.25909240398102</v>
+        <v>6.757662411876726e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.80679603421382e-07</v>
+        <v>-0.04675346384625519</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6.757662411876726e-06</v>
+        <v>0.04648929386153432</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04675346384625519</v>
+        <v>0.004346851103426349</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.04648929386153432</v>
+        <v>1.917887152336256</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.004346851103426349</v>
+        <v>2.285870211320152</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.927950544669687</v>
+        <v>4.269734328160926</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.285870211320152</v>
+        <v>1.447651500781382e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.269734328160926</v>
+        <v>356934157.7394586</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.447651500781382e-15</v>
+        <v>3.394892939564815e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>356934157.7394586</v>
+        <v>184.4336863127866</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.394892939564815e-07</v>
+        <v>0.0001467015863027793</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>184.4336863127866</v>
+        <v>9.507595599802306</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001467015863027793</v>
+        <v>1.179918376753646</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.507595599802306</v>
+        <v>0.01326099807175892</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.179918376753646</v>
+        <v>2.867986737116657</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01326099807175892</v>
+        <v>0.9618961707941399</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.867986737116657</v>
+        <v>1.313311719476569</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9618961707941399</v>
+        <v>41</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.313311719476569</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.469233704617686</v>
       </c>
     </row>
@@ -2511,72 +2361,66 @@
         <v>1.902859410602213e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.3223665026763436</v>
+        <v>5.849933479334651e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.205356801424115</v>
+        <v>6.748578714041177e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>5.849933479334651e-07</v>
+        <v>-0.04835927914690979</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>6.748578714041177e-06</v>
+        <v>0.0443713070415214</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.04835927914690979</v>
+        <v>0.004307593616789738</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.0443713070415214</v>
+        <v>1.906839962792394</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.004307593616789738</v>
+        <v>2.300794625447048</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.918061898169765</v>
+        <v>4.298558851215831</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.300794625447048</v>
+        <v>1.686893511540156e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.298558851215831</v>
+        <v>304148472.7220245</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.686893511540156e-15</v>
+        <v>3.967108673978098e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>304148472.7220245</v>
+        <v>156.0482662128529</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.967108673978098e-07</v>
+        <v>0.0001623376396576389</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>156.0482662128529</v>
+        <v>8.530574957678487</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001623376396576389</v>
+        <v>1.396660617342899</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.530574957678487</v>
+        <v>0.01181342515289812</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.396660617342899</v>
+        <v>2.973304023950632</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01181342515289812</v>
+        <v>0.9614404476308538</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.973304023950632</v>
+        <v>1.318667506396915</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9614404476308538</v>
+        <v>41</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.318667506396915</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.4210876606904753</v>
       </c>
     </row>
@@ -2591,72 +2435,66 @@
         <v>1.89073236341664e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.3685784338598566</v>
+        <v>5.850138163246597e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.146449292996713</v>
+        <v>6.739337500539581e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>5.850138163246597e-07</v>
+        <v>-0.04884595222157838</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>6.739337500539581e-06</v>
+        <v>0.04438482979001242</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.04884595222157838</v>
+        <v>0.004356064759661744</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.04438482979001242</v>
+        <v>1.90504115997502</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.004356064759661744</v>
+        <v>2.20334598111926</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.915310222394675</v>
+        <v>4.321361722192764</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.20334598111926</v>
+        <v>2.180411689101443e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.321361722192764</v>
+        <v>239600132.4027047</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.180411689101443e-15</v>
+        <v>5.006833048272797e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>239600132.4027047</v>
+        <v>125.1735614552447</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.006833048272797e-07</v>
+        <v>0.0001934897594173878</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>125.1735614552447</v>
+        <v>9.017921328832859</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001934897594173878</v>
+        <v>1.539002376025966</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.017921328832859</v>
+        <v>0.01573514934157123</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.539002376025966</v>
+        <v>2.855809614131969</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01573514934157123</v>
+        <v>0.9614026489792845</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.855809614131969</v>
+        <v>1.341863051557679</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9614026489792845</v>
+        <v>41</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.341863051557679</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.3790068607918073</v>
       </c>
     </row>
@@ -2671,72 +2509,66 @@
         <v>1.870874767504414e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.4162333371210074</v>
+        <v>5.850138163246597e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.082499563400397</v>
+        <v>6.73017445817322e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5.850138163246597e-07</v>
+        <v>-0.04842420675850759</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>6.73017445817322e-06</v>
+        <v>0.04676266771052411</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.04842420675850759</v>
+        <v>0.00453144145607896</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.04676266771052411</v>
+        <v>1.905599926035333</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.00453144145607896</v>
+        <v>2.293360660157029</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.914117217331873</v>
+        <v>4.140532142434913</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.293360660157029</v>
+        <v>2.375020826506115e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.140532142434913</v>
+        <v>225446424.2728235</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.375020826506115e-15</v>
+        <v>5.374667213281504e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>225446424.2728235</v>
+        <v>120.7130227962084</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.374667213281504e-07</v>
+        <v>0.0001813804812156332</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>120.7130227962084</v>
+        <v>10.50600978955105</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001813804812156332</v>
+        <v>1.207781130090405</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.50600978955105</v>
+        <v>0.02002009583398214</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.207781130090405</v>
+        <v>2.765745519715575</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.02002009583398214</v>
+        <v>0.9611300609382941</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.765745519715575</v>
+        <v>1.34109241051814</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9611300609382941</v>
+        <v>20</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.34109241051814</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.374423696947374</v>
       </c>
     </row>
@@ -2751,72 +2583,66 @@
         <v>1.842518825131631e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.4661270597525515</v>
+        <v>5.850138163246597e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.011491427026237</v>
+        <v>6.721250675674197e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>5.850138163246597e-07</v>
+        <v>-0.04760297734079199</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>6.721250675674197e-06</v>
+        <v>0.05084206322423165</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.04760297734079199</v>
+        <v>0.004850347553113676</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.05084206322423165</v>
+        <v>1.902663622743902</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.004850347553113676</v>
+        <v>2.34219042005289</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.913759226563402</v>
+        <v>4.087979229477686</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.34219042005289</v>
+        <v>2.436477369705062e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.087979229477686</v>
+        <v>219716061.2732881</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.436477369705062e-15</v>
+        <v>5.508228173806223e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>219716061.2732881</v>
+        <v>117.6213046013684</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>5.508228173806223e-07</v>
+        <v>0.0001734499363875943</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>117.6213046013684</v>
+        <v>11.50662891967444</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001734499363875943</v>
+        <v>1.067160844724796</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>11.50662891967444</v>
+        <v>0.0229652067801009</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.067160844724796</v>
+        <v>2.570920801308615</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.0229652067801009</v>
+        <v>0.959421149690286</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.570920801308615</v>
+        <v>1.330038720784636</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.959421149690286</v>
+        <v>20</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.330038720784636</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.3642856962275371</v>
       </c>
     </row>
@@ -2831,72 +2657,66 @@
         <v>1.804841083576524e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.5162606794098955</v>
+        <v>5.850138163246597e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.932827953887156</v>
+        <v>6.712636803457813e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>5.850138163246597e-07</v>
+        <v>-0.04688292748471493</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>6.712636803457813e-06</v>
+        <v>0.05580236161954379</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.04688292748471493</v>
+        <v>0.005311144305400792</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.05580236161954379</v>
+        <v>1.890478446788762</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.005311144305400792</v>
+        <v>2.347595623333926</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.893038184832517</v>
+        <v>3.99869946309733</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.347595623333926</v>
+        <v>2.546491402780396e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.99869946309733</v>
+        <v>210673582.6768607</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.546491402780396e-15</v>
+        <v>5.732852655167389e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>210673582.6768607</v>
+        <v>113.0218406886434</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>5.732852655167389e-07</v>
+        <v>0.0001687335348611214</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>113.0218406886434</v>
+        <v>10.37212518553916</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001687335348611214</v>
+        <v>1.148347803628531</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>10.37212518553916</v>
+        <v>0.01815251918509305</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.148347803628531</v>
+        <v>2.729458716674906</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01815251918509305</v>
+        <v>0.9590443769600234</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.729458716674906</v>
+        <v>1.376101498996403</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9590443769600234</v>
+        <v>25</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.376101498996403</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.3332815738411269</v>
       </c>
     </row>
@@ -2911,72 +2731,66 @@
         <v>1.756805535936863e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.5608502897564565</v>
+        <v>5.850138163246597e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.8545953726514677</v>
+        <v>6.704260940046575e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>5.850138163246597e-07</v>
+        <v>-0.04738066114800386</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>6.704260940046575e-06</v>
+        <v>0.05902390756179356</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.04738066114800386</v>
+        <v>0.005728478873380401</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.05902390756179356</v>
+        <v>1.885735457878196</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.005728478873380401</v>
+        <v>2.180341477325387</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.884405735203039</v>
+        <v>3.972660111505137</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.180341477325387</v>
+        <v>3.432561629478361e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.972660111505137</v>
+        <v>151386523.2705168</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.432561629478361e-15</v>
+        <v>7.95847616625305e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>151386523.2705168</v>
+        <v>78.6670335533402</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>7.95847616625305e-07</v>
+        <v>0.0001923492172386676</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>78.6670335533402</v>
+        <v>9.048187264720859</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001923492172386676</v>
+        <v>1.493061152291039</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.048187264720859</v>
+        <v>0.01574757132131401</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.493061152291039</v>
+        <v>2.797200750846668</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01574757132131401</v>
+        <v>0.9590549915411147</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.797200750846668</v>
+        <v>1.454567802113271</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9590549915411147</v>
+        <v>19</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.454567802113271</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2938610138907032</v>
       </c>
     </row>
@@ -2991,72 +2805,66 @@
         <v>1.698221014794428e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.5916941717639298</v>
+        <v>5.850138163246597e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.7995654606042732</v>
+        <v>6.695931489744274e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>5.850138163246597e-07</v>
+        <v>-0.04908158591203698</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>6.695931489744274e-06</v>
+        <v>0.06096603015096185</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.04908158591203698</v>
+        <v>0.006126125330969941</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.06096603015096185</v>
+        <v>1.890379625834421</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.006126125330969941</v>
+        <v>2.079583532826948</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.886372017444016</v>
+        <v>3.632702281254903</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.079583532826948</v>
+        <v>4.105079287268714e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.632702281254903</v>
+        <v>127775117.7997214</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>4.105079287268714e-15</v>
+        <v>9.4119914280073e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>127775117.7997214</v>
+        <v>67.02149787351235</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>9.4119914280073e-07</v>
+        <v>0.0002227937555675367</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>67.02149787351235</v>
+        <v>9.735270121291755</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0002227937555675367</v>
+        <v>1.496692822699433</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.735270121291755</v>
+        <v>0.02111538609061906</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.496692822699433</v>
+        <v>2.655289734763286</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02111538609061906</v>
+        <v>0.9579196047006167</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.655289734763286</v>
+        <v>1.428221478942426</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9579196047006167</v>
+        <v>19</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.428221478942426</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2731120644022274</v>
       </c>
     </row>
@@ -3071,72 +2879,66 @@
         <v>1.631762632427202e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.6054170816925715</v>
+        <v>5.812039617170988e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.7878393462270781</v>
+        <v>6.68761543305639e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.812039617170988e-07</v>
+        <v>-0.05068943469667259</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>6.68761543305639e-06</v>
+        <v>0.06364447137019627</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05068943469667259</v>
+        <v>0.006620123241077636</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.06364447137019627</v>
+        <v>1.886357315021122</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.006620123241077636</v>
+        <v>2.013545005476478</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.879370016665266</v>
+        <v>3.603078603479884</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.013545005476478</v>
+        <v>4.172858802524453e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.603078603479884</v>
+        <v>117947945.1860463</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>4.172858802524453e-15</v>
+        <v>1.015939254724464e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>117947945.1860463</v>
+        <v>58.05163396984683</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.015939254724464e-06</v>
+        <v>0.000211705440421915</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>58.05163396984683</v>
+        <v>11.7381036403864</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.000211705440421915</v>
+        <v>1.15274744858478</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>11.7381036403864</v>
+        <v>0.02916942701431021</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.15274744858478</v>
+        <v>2.528587325477474</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.02916942701431021</v>
+        <v>0.9580176351575654</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.528587325477474</v>
+        <v>1.456055784690544</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9580176351575654</v>
+        <v>19</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.456055784690544</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2824431940771351</v>
       </c>
     </row>
@@ -3151,72 +2953,66 @@
         <v>1.562187758176173e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.6061441101851872</v>
+        <v>5.659709873674667e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.8181968294574764</v>
+        <v>6.679435550450185e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>5.659709873674667e-07</v>
+        <v>-0.05165961438702715</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>6.679435550450185e-06</v>
+        <v>0.06631876666833818</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.05165961438702715</v>
+        <v>0.007066140110746309</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.06631876666833818</v>
+        <v>1.88122983078503</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.007066140110746309</v>
+        <v>2.001559352937445</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.87613167415406</v>
+        <v>3.714342982253585</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.001559352937445</v>
+        <v>3.926604455099328e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.714342982253585</v>
+        <v>124274843.8994061</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3.926604455099328e-15</v>
+        <v>9.632612218734991e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>124274843.8994061</v>
+        <v>60.64340912745147</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>9.632612218734991e-07</v>
+        <v>0.0001971900753698245</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>60.64340912745147</v>
+        <v>12.66432906078825</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001971900753698245</v>
+        <v>1.036184306703666</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>12.66432906078825</v>
+        <v>0.03162637570231847</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.036184306703666</v>
+        <v>2.401606815286339</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.03162637570231847</v>
+        <v>0.9589236211211183</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.401606815286339</v>
+        <v>1.471690743950321</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9589236211211183</v>
+        <v>19</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.471690743950321</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2833974553837508</v>
       </c>
     </row>
@@ -3231,72 +3027,66 @@
         <v>1.493687696613708e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.6008186288743994</v>
+        <v>5.43288857906355e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.8760080461196273</v>
+        <v>6.671497706772042e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>5.43288857906355e-07</v>
+        <v>-0.05223139562486639</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>6.671497706772042e-06</v>
+        <v>0.06818520836608541</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05223139562486639</v>
+        <v>0.007375678888967928</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.06818520836608541</v>
+        <v>1.885622896973532</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.007375678888967928</v>
+        <v>2.033883118538873</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.892183588120696</v>
+        <v>3.73802133670435</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.033883118538873</v>
+        <v>3.877016157582614e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.73802133670435</v>
+        <v>125509292.2649787</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>3.877016157582614e-15</v>
+        <v>9.541853576218607e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>125509292.2649787</v>
+        <v>61.07301666235831</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>9.541853576218607e-07</v>
+        <v>0.0001774425737537175</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>61.07301666235831</v>
+        <v>11.02084695167205</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001774425737537175</v>
+        <v>1.127108507211114</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>11.02084695167205</v>
+        <v>0.02155200954863644</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.127108507211114</v>
+        <v>2.676679905165166</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.02155200954863644</v>
+        <v>0.9597988582221485</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.676679905165166</v>
+        <v>1.406557160025159</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9597988582221485</v>
+        <v>16</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.406557160025159</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2716221570873883</v>
       </c>
     </row>
@@ -3311,72 +3101,66 @@
         <v>1.42909622574611e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.5959244266235856</v>
+        <v>5.165413146127061e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.9440158086523707</v>
+        <v>6.66384542108291e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>5.165413146127061e-07</v>
+        <v>-0.05246538673015474</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>6.66384542108291e-06</v>
+        <v>0.06914963303172353</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.05246538673015474</v>
+        <v>0.007531896759289516</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.06914963303172353</v>
+        <v>1.88733355270379</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.007531896759289516</v>
+        <v>1.953293793785675</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.894288905567852</v>
+        <v>3.860372276902228</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.953293793785675</v>
+        <v>3.635153771548046e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.860372276902228</v>
+        <v>136840867.0376944</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.635153771548046e-15</v>
+        <v>8.716067187858218e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>136840867.0376944</v>
+        <v>68.06979164833345</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>8.716067187858218e-07</v>
+        <v>0.0001825713590197818</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>68.06979164833345</v>
+        <v>9.052535439767304</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001825713590197818</v>
+        <v>1.498631745912115</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.052535439767304</v>
+        <v>0.01496143037195034</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.498631745912115</v>
+        <v>2.86316589267702</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01496143037195034</v>
+        <v>0.9589811505106581</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.86316589267702</v>
+        <v>1.403581895996705</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9589811505106581</v>
+        <v>25</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.403581895996705</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2682143487110752</v>
       </c>
     </row>
@@ -3391,72 +3175,66 @@
         <v>1.370068553217857e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.5972518509507945</v>
+        <v>4.877464110529746e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.003439370917395</v>
+        <v>6.656524740350066e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>4.877464110529746e-07</v>
+        <v>-0.05207645277138754</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>6.656524740350066e-06</v>
+        <v>0.0692380562288063</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05207645277138754</v>
+        <v>0.007503213622665077</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.0692380562288063</v>
+        <v>1.889075876058451</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.007503213622665077</v>
+        <v>2.041705984438786</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.895640581537112</v>
+        <v>3.953551565028183</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.041705984438786</v>
+        <v>3.465822747841051e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.953551565028183</v>
+        <v>150758027.8584555</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.465822747841051e-15</v>
+        <v>7.974822294780955e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>150758027.8584555</v>
+        <v>78.77116036838088</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>7.974822294780955e-07</v>
+        <v>0.0002036493278523118</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>78.77116036838088</v>
+        <v>9.225492974702549</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0002036493278523118</v>
+        <v>1.638025133815775</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>9.225492974702549</v>
+        <v>0.0173325373992412</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.638025133815775</v>
+        <v>2.854353076930829</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.0173325373992412</v>
+        <v>0.9607041547046721</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.854353076930829</v>
+        <v>1.410553002947516</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9607041547046721</v>
+        <v>25</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.410553002947516</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2796474922729796</v>
       </c>
     </row>
@@ -3471,72 +3249,66 @@
         <v>1.316896891832602e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.6089079875314938</v>
+        <v>4.59371496347088e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.038440243685368</v>
+        <v>6.649605683185259e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.59371496347088e-07</v>
+        <v>-0.05081046718397233</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>6.649605683185259e-06</v>
+        <v>0.06909980218850827</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05081046718397233</v>
+        <v>0.00735400164743281</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.06909980218850827</v>
+        <v>1.889383616057516</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.00735400164743281</v>
+        <v>2.158063672414023</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.892375918064663</v>
+        <v>3.890531658494419</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.158063672414023</v>
+        <v>3.579012833360819e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.890531658494419</v>
+        <v>145121611.4407963</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.579012833360819e-15</v>
+        <v>8.27757381116583e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>145121611.4407963</v>
+        <v>75.37501993577307</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>8.27757381116583e-07</v>
+        <v>0.0001962620969402658</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>75.37501993577307</v>
+        <v>11.10634487602705</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001962620969402658</v>
+        <v>1.248294438711636</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>11.10634487602705</v>
+        <v>0.02420910560758252</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.248294438711636</v>
+        <v>2.757604439620431</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02420910560758252</v>
+        <v>0.9610208734680458</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.757604439620431</v>
+        <v>1.40981678311523</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9610208734680458</v>
+        <v>25</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.40981678311523</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2940201471402666</v>
       </c>
     </row>
@@ -3913,7 +3685,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.372198797259537</v>
+        <v>1.355912045471011</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.907711215946019</v>
@@ -4002,7 +3774,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.364835223339802</v>
+        <v>1.349823401691075</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.941426077789654</v>
@@ -4091,7 +3863,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.39267802151692</v>
+        <v>1.372785587623618</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.82166573633303</v>
@@ -4180,7 +3952,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.40875130248795</v>
+        <v>1.392364372053989</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.503957143071361</v>
@@ -4269,7 +4041,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.4214161362457</v>
+        <v>1.396597146973366</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.327263394740993</v>
@@ -4358,7 +4130,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.419779393175431</v>
+        <v>1.390589384707927</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.461272143264976</v>
@@ -4447,7 +4219,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.43147231668357</v>
+        <v>1.391364389409942</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.521226711743242</v>
@@ -4536,7 +4308,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.44743810930486</v>
+        <v>1.404953397845168</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.675174970268941</v>
@@ -4625,7 +4397,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.436548061813316</v>
+        <v>1.394883147466214</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.662552434394081</v>
@@ -4714,7 +4486,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.437196433690878</v>
+        <v>1.397472451154754</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.661894630368521</v>
@@ -4803,7 +4575,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.432515777666454</v>
+        <v>1.391581781684159</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.552932546647998</v>
@@ -4892,7 +4664,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.475560832847014</v>
+        <v>1.429556909959464</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.896878657876042</v>
@@ -4981,7 +4753,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.492369567905761</v>
+        <v>1.443821360023025</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.670722361586058</v>
@@ -5070,7 +4842,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.500488863725794</v>
+        <v>1.451206593237832</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.0964037154726</v>
@@ -5159,7 +4931,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.490978372398126</v>
+        <v>1.443533395160199</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.89240922861315</v>
@@ -5248,7 +5020,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.497554011988589</v>
+        <v>1.450472691020813</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.162281103061003</v>
@@ -5337,7 +5109,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.509444795454747</v>
+        <v>1.454658671165657</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.828417735637853</v>
@@ -5426,7 +5198,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.522429792861635</v>
+        <v>1.467607174807498</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.693472090729567</v>
@@ -5515,7 +5287,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.526441301599584</v>
+        <v>1.468418505846131</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.786165624795135</v>
@@ -5604,7 +5376,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.524457159115069</v>
+        <v>1.466653563469917</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.943354399096584</v>
@@ -5693,7 +5465,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.503452227167624</v>
+        <v>1.456997012860415</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.921148895347189</v>
@@ -5782,7 +5554,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.493307788573554</v>
+        <v>1.451461393111476</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.947977396069089</v>
@@ -5871,7 +5643,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.480489914740329</v>
+        <v>1.444206632150267</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.921701299826689</v>
@@ -5960,7 +5732,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.472957166106605</v>
+        <v>1.4371388256821</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.954830834519647</v>
@@ -6049,7 +5821,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.473693005503808</v>
+        <v>1.436243567316723</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.841066925244672</v>
@@ -6138,7 +5910,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.476616244755669</v>
+        <v>1.437827097193864</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.828015293686019</v>
@@ -6227,7 +5999,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.481984911028418</v>
+        <v>1.435505046367899</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.880568029223392</v>
@@ -6316,7 +6088,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.477043253884961</v>
+        <v>1.426250263544105</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.472704829096064</v>
@@ -6405,7 +6177,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.474107884198631</v>
+        <v>1.418575522388643</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.727580362647449</v>
@@ -6494,7 +6266,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.451320191437239</v>
+        <v>1.397218189558229</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.891817844526074</v>
@@ -6583,7 +6355,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.437066951657653</v>
+        <v>1.381539694391198</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.771165448538293</v>
@@ -6672,7 +6444,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.431414310234857</v>
+        <v>1.377966009684985</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.854659856784368</v>
@@ -6761,7 +6533,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.42136896544183</v>
+        <v>1.371260696926788</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.771300765064264</v>
@@ -6850,7 +6622,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.4198451659803</v>
+        <v>1.371418705114025</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.663447971692625</v>
@@ -6939,7 +6711,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.429341059138245</v>
+        <v>1.379330731143627</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.633294655204006</v>
@@ -7028,7 +6800,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.453655517380297</v>
+        <v>1.394632160866596</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.454899384701374</v>
@@ -7117,7 +6889,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.456355158999872</v>
+        <v>1.397044808763921</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.833777976314858</v>
@@ -7206,7 +6978,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.469734844338717</v>
+        <v>1.405183456140553</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.618821040994011</v>
@@ -7295,7 +7067,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.472634848855679</v>
+        <v>1.407727828655674</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.578316754548019</v>
@@ -7384,7 +7156,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.473983917770771</v>
+        <v>1.409167825612226</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.623157942145606</v>
@@ -7473,7 +7245,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.479373134091857</v>
+        <v>1.417982163851178</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.600846050861363</v>
@@ -7562,7 +7334,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.48625088752606</v>
+        <v>1.428449046939106</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.786274379066378</v>
@@ -7651,7 +7423,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.503077453259611</v>
+        <v>1.447147736853243</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.450780144493084</v>
@@ -7740,7 +7512,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.507804553312131</v>
+        <v>1.449135870745737</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.495616106201733</v>
@@ -7829,7 +7601,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.521056530571043</v>
+        <v>1.464434459177018</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.669556240387911</v>
@@ -7918,7 +7690,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.535635534109791</v>
+        <v>1.474969713408184</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.775100060052703</v>
@@ -8007,7 +7779,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.562271595974182</v>
+        <v>1.49419830902386</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.703718028470796</v>
@@ -8096,7 +7868,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.55823293802507</v>
+        <v>1.475320214758906</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.211191673675719</v>
@@ -8185,7 +7957,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.558789177767634</v>
+        <v>1.473157849993482</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.88649341832524</v>
@@ -8274,7 +8046,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.550977421760067</v>
+        <v>1.470839101945582</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.979075709664666</v>
@@ -8363,7 +8135,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.541412402720078</v>
+        <v>1.460072942567326</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.06789509544173</v>
@@ -8452,7 +8224,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.536323558538099</v>
+        <v>1.45438266766556</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.25480019777409</v>
@@ -8541,7 +8313,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.542441457632756</v>
+        <v>1.459167413314207</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.190521902501146</v>
@@ -8630,7 +8402,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.545420822147515</v>
+        <v>1.456904180152336</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.312218013531438</v>
@@ -8719,7 +8491,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.548736878192694</v>
+        <v>1.46081912647125</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.364807412158604</v>
@@ -8808,7 +8580,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.543718060876599</v>
+        <v>1.448632580850533</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.210438773632251</v>
@@ -8897,7 +8669,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.534761945987364</v>
+        <v>1.436200600416519</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.086235025128027</v>
@@ -8986,7 +8758,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.538021576429027</v>
+        <v>1.437485743828467</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.0454118016007</v>
@@ -9075,7 +8847,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.555367584472588</v>
+        <v>1.451202102578658</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.880397862212967</v>
@@ -9164,7 +8936,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.558048345995131</v>
+        <v>1.448482526988687</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.392166153380984</v>
@@ -9253,7 +9025,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.570006542711573</v>
+        <v>1.45846983691025</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.06173732928596</v>
@@ -9342,7 +9114,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.572551645275987</v>
+        <v>1.462940766156166</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.858299628845858</v>
@@ -9431,7 +9203,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.57364937109071</v>
+        <v>1.470649046768415</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.317672982675986</v>
@@ -9520,7 +9292,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.564533691942673</v>
+        <v>1.464182613462378</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.681930628185022</v>
@@ -9609,7 +9381,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.57598910036024</v>
+        <v>1.472792753626064</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.855501030613293</v>
@@ -9698,7 +9470,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.583131222827456</v>
+        <v>1.471214340449944</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.211994638303394</v>
@@ -9787,7 +9559,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.581198000417517</v>
+        <v>1.474893375913782</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.916866544523274</v>
@@ -9876,7 +9648,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.579479989194264</v>
+        <v>1.473234272232296</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.276930470349692</v>
@@ -9965,7 +9737,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.576071694683877</v>
+        <v>1.470478815597728</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.221964103810103</v>
@@ -10054,7 +9826,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.582371696491458</v>
+        <v>1.474169770348811</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.027672537997259</v>
@@ -10143,7 +9915,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.572481203498298</v>
+        <v>1.466524783556877</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.855705509927219</v>
@@ -10232,7 +10004,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.5551226808591</v>
+        <v>1.454848864712287</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.136781052513516</v>
@@ -10321,7 +10093,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.533228049037614</v>
+        <v>1.439933023529895</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.139990916508817</v>
@@ -10410,7 +10182,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.429443055501217</v>
+        <v>1.365521986253358</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.771158063056477</v>
@@ -10499,7 +10271,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.425776991262978</v>
+        <v>1.365187467344448</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.786380438625274</v>
@@ -10588,7 +10360,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.41337636309784</v>
+        <v>1.357662859120319</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.788389579441487</v>
@@ -10677,7 +10449,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.412167964874345</v>
+        <v>1.358777538233923</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.790352656199637</v>
@@ -10766,7 +10538,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.411682893727256</v>
+        <v>1.360566035369871</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.782151663450096</v>
@@ -10855,7 +10627,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.422729313917756</v>
+        <v>1.370684394812692</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.771851710897666</v>
@@ -10944,7 +10716,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.421777003699503</v>
+        <v>1.368115309485383</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.790009627815042</v>
@@ -11033,7 +10805,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.419033978966798</v>
+        <v>1.375987874777253</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.769639951954669</v>
@@ -11319,7 +11091,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.437626631524572</v>
+        <v>1.42069540789853</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.274118137480191</v>
@@ -11408,7 +11180,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.442771466181775</v>
+        <v>1.428267487545072</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.309357615622224</v>
@@ -11497,7 +11269,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.466195376369731</v>
+        <v>1.454147257390706</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.090735932902652</v>
@@ -11586,7 +11358,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.481641821866234</v>
+        <v>1.469316466617128</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.659876301538564</v>
@@ -11675,7 +11447,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.491994226316677</v>
+        <v>1.473520788822583</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.570369718256094</v>
@@ -11764,7 +11536,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.492926373556373</v>
+        <v>1.469720442622057</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.561402410359842</v>
@@ -11853,7 +11625,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.495617161837665</v>
+        <v>1.466747824617478</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.76865692940738</v>
@@ -11942,7 +11714,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.517305735336985</v>
+        <v>1.487268545732679</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.936673826718857</v>
@@ -12031,7 +11803,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.511526673902076</v>
+        <v>1.481233734016478</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.983143210607632</v>
@@ -12120,7 +11892,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.510963145274229</v>
+        <v>1.48260642655813</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.99403978825473</v>
@@ -12209,7 +11981,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.508320157320392</v>
+        <v>1.478485308497927</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.861800732554217</v>
@@ -12298,7 +12070,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.545252401464928</v>
+        <v>1.512897016259962</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.032563653960886</v>
@@ -12387,7 +12159,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.56213126775709</v>
+        <v>1.529999710370039</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.709891950781699</v>
@@ -12476,7 +12248,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.558031517642892</v>
+        <v>1.525013507309658</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.03201448859697</v>
@@ -12565,7 +12337,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.549425429303637</v>
+        <v>1.516730787537099</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.026919764567464</v>
@@ -12654,7 +12426,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.554040759296511</v>
+        <v>1.521032488118203</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.014629126220531</v>
@@ -12743,7 +12515,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.557167316515355</v>
+        <v>1.518473678572965</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.886030335635085</v>
@@ -12832,7 +12604,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.559353396283416</v>
+        <v>1.518838404568888</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.785558973818149</v>
@@ -12921,7 +12693,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.567708748208548</v>
+        <v>1.522668110831321</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.788477361811786</v>
@@ -13010,7 +12782,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.554291973391255</v>
+        <v>1.512654393488959</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.066688536633666</v>
@@ -13099,7 +12871,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.525705004195879</v>
+        <v>1.494060551565066</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.959742036233187</v>
@@ -13188,7 +12960,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.51133645097083</v>
+        <v>1.482382940266355</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.914098592052717</v>
@@ -13277,7 +13049,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.5022102116409</v>
+        <v>1.474395312549578</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.893877206742756</v>
@@ -13366,7 +13138,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.4938883950912</v>
+        <v>1.469779469290133</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.893752186531936</v>
@@ -13455,7 +13227,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.494042758688833</v>
+        <v>1.46905890261988</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.968700772123968</v>
@@ -13544,7 +13316,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.502801248271565</v>
+        <v>1.473486914084721</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.965110742737843</v>
@@ -13633,7 +13405,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.51590793641432</v>
+        <v>1.475207324749977</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.772559345702354</v>
@@ -13722,7 +13494,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.510842866366331</v>
+        <v>1.461665985173226</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.321789445908628</v>
@@ -13811,7 +13583,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.522609379409517</v>
+        <v>1.469834985862013</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.807689435393992</v>
@@ -13900,7 +13672,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.505245212519039</v>
+        <v>1.452882734590175</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.006347101850952</v>
@@ -13989,7 +13761,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.489433403386663</v>
+        <v>1.438159348266654</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.023022390971323</v>
@@ -14078,7 +13850,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.480311477349133</v>
+        <v>1.423863770927649</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.899060027708041</v>
@@ -14167,7 +13939,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.470583403414547</v>
+        <v>1.423105706909164</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.964309444594072</v>
@@ -14256,7 +14028,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.465482664203048</v>
+        <v>1.416156164881033</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.787971486993685</v>
@@ -14345,7 +14117,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.479805294266814</v>
+        <v>1.430772917547383</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.587779437353358</v>
@@ -14434,7 +14206,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.504196705318169</v>
+        <v>1.44680622795084</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.870740963430475</v>
@@ -14523,7 +14295,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.516398051868151</v>
+        <v>1.454718381137149</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.891788281196362</v>
@@ -14612,7 +14384,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.526008441806185</v>
+        <v>1.462613350661585</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.604423471226966</v>
@@ -14701,7 +14473,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.531873157740447</v>
+        <v>1.466632652045069</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.830791391483871</v>
@@ -14790,7 +14562,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.533041312640475</v>
+        <v>1.469417921793503</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.627267648004556</v>
@@ -14879,7 +14651,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.531099236163852</v>
+        <v>1.471425737218146</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.760752301197544</v>
@@ -14968,7 +14740,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.528858084226872</v>
+        <v>1.473576105465853</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.789695330482282</v>
@@ -15057,7 +14829,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.533712099019433</v>
+        <v>1.48124822484673</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.588297193742077</v>
@@ -15146,7 +14918,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.533451977133152</v>
+        <v>1.479812374569642</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.537600374891394</v>
@@ -15235,7 +15007,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.537257260853954</v>
+        <v>1.485669430092265</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.752160811704597</v>
@@ -15324,7 +15096,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.547832032531246</v>
+        <v>1.491368240590139</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.684339102074582</v>
@@ -15413,7 +15185,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.578209789298854</v>
+        <v>1.51402826926374</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.669083541281671</v>
@@ -15502,7 +15274,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.576920244271452</v>
+        <v>1.496274543895477</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.157013598039851</v>
@@ -15591,7 +15363,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.58882564831289</v>
+        <v>1.507466631284805</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.68986507267423</v>
@@ -15680,7 +15452,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.583239300932214</v>
+        <v>1.504066679320204</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.070976436098291</v>
@@ -15769,7 +15541,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.578359417405351</v>
+        <v>1.499307142870961</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.045837435124396</v>
@@ -15858,7 +15630,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.570482238526361</v>
+        <v>1.492953959877223</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.011874223820173</v>
@@ -15947,7 +15719,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.568897963921323</v>
+        <v>1.488987041732979</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.301284975195238</v>
@@ -16036,7 +15808,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.574423213714142</v>
+        <v>1.485866221618705</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.14486147723862</v>
@@ -16125,7 +15897,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.578985220243032</v>
+        <v>1.490747874490221</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.057740351428385</v>
@@ -16214,7 +15986,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.569252404392194</v>
+        <v>1.478388719961359</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.155514532602843</v>
@@ -16303,7 +16075,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.573477432526171</v>
+        <v>1.478226673423956</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.901431382995998</v>
@@ -16392,7 +16164,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.577680342082778</v>
+        <v>1.482092856090751</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.367583361787962</v>
@@ -16481,7 +16253,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.60198449036896</v>
+        <v>1.498092800479665</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.793471065932811</v>
@@ -16570,7 +16342,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.603801593914488</v>
+        <v>1.491504064592272</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.460443476208252</v>
@@ -16659,7 +16431,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.613322413095148</v>
+        <v>1.500231596094321</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.520929932248741</v>
@@ -16748,7 +16520,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.608601609093325</v>
+        <v>1.502587377034091</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.688242353050113</v>
@@ -16837,7 +16609,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.608779653663058</v>
+        <v>1.510975638967201</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.478645928976093</v>
@@ -16926,7 +16698,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.591706493623359</v>
+        <v>1.496721174495807</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.105419676736759</v>
@@ -17015,7 +16787,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.599314911968314</v>
+        <v>1.503184247348142</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.133178052093556</v>
@@ -17104,7 +16876,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.602880064144152</v>
+        <v>1.495708837382136</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.528911909937899</v>
@@ -17193,7 +16965,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.600081586487086</v>
+        <v>1.499908204054423</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.112278322275894</v>
@@ -17282,7 +17054,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.597347928478833</v>
+        <v>1.493350555750959</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.404474484182678</v>
@@ -17371,7 +17143,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.597308002317847</v>
+        <v>1.497881913831557</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.619466257163677</v>
@@ -17460,7 +17232,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.596614228675367</v>
+        <v>1.493466499443004</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.320834512519719</v>
@@ -17549,7 +17321,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.598198604909601</v>
+        <v>1.49059372055638</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.595291370116055</v>
@@ -17638,7 +17410,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.589667241865148</v>
+        <v>1.48851396671201</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.833011546371433</v>
@@ -17727,7 +17499,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.573765615696497</v>
+        <v>1.4716294065605</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.199044824368888</v>
@@ -17816,7 +17588,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.457026047882842</v>
+        <v>1.391424067588478</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.782571609306171</v>
@@ -17905,7 +17677,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.464568856360103</v>
+        <v>1.398949782048232</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.814027187513726</v>
@@ -17994,7 +17766,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.458759468927382</v>
+        <v>1.396662176491327</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.812089484858363</v>
@@ -18083,7 +17855,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.45466827803872</v>
+        <v>1.393860612121754</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.803608481334523</v>
@@ -18172,7 +17944,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.455985909203596</v>
+        <v>1.397401642260967</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.824780748576884</v>
@@ -18261,7 +18033,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.461984548613934</v>
+        <v>1.399585867557547</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.785863868444322</v>
@@ -18350,7 +18122,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.46197546124142</v>
+        <v>1.399269635299965</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.806169019620908</v>
@@ -18439,7 +18211,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.457209222479033</v>
+        <v>1.403164538741927</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.78179589842462</v>
@@ -18725,7 +18497,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.436042478610188</v>
+        <v>1.384743404643797</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.334732141407347</v>
@@ -18814,7 +18586,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.446898303775217</v>
+        <v>1.395005844165255</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.405253487229079</v>
@@ -18903,7 +18675,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.479247446220792</v>
+        <v>1.421632866442754</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.556408458921775</v>
@@ -18992,7 +18764,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.466541327646247</v>
+        <v>1.414073601989611</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.312500286351628</v>
@@ -19081,7 +18853,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.458451526267385</v>
+        <v>1.413071986620702</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.40633922648228</v>
@@ -19170,7 +18942,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.448884055274124</v>
+        <v>1.405714232447286</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.482311553316126</v>
@@ -19259,7 +19031,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.456230435424007</v>
+        <v>1.411381420833913</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.230701122177372</v>
@@ -19348,7 +19120,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.454221553808781</v>
+        <v>1.418047099719948</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.266168925836403</v>
@@ -19437,7 +19209,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.449967921263415</v>
+        <v>1.411338918610311</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.264701908958289</v>
@@ -19526,7 +19298,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.442606540533532</v>
+        <v>1.410337938683136</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.279591648818853</v>
@@ -19615,7 +19387,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.441303160509477</v>
+        <v>1.406756189185512</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.378564718313689</v>
@@ -19704,7 +19476,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.445326142103132</v>
+        <v>1.414132074422989</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.327672876749449</v>
@@ -19793,7 +19565,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.44619627930577</v>
+        <v>1.416236647640236</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.395514577544128</v>
@@ -19882,7 +19654,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.449032148018087</v>
+        <v>1.422584577106294</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.393229134630056</v>
@@ -19971,7 +19743,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.440141906550374</v>
+        <v>1.413855811712455</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.413678109176648</v>
@@ -20060,7 +19832,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.448540078217561</v>
+        <v>1.418945251860261</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.315584459524186</v>
@@ -20149,7 +19921,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.438039617265968</v>
+        <v>1.410921386243576</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.407371092171104</v>
@@ -20238,7 +20010,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.436265553985041</v>
+        <v>1.409608928761841</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.366041020291199</v>
@@ -20327,7 +20099,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.447429551381055</v>
+        <v>1.415226559807204</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.434261611660999</v>
@@ -20416,7 +20188,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.441201975772778</v>
+        <v>1.407529763511842</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.469148703811614</v>
@@ -20505,7 +20277,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.433260997109906</v>
+        <v>1.400993671304826</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.365466599800575</v>
@@ -20594,7 +20366,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.435456740853313</v>
+        <v>1.398675335672333</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.407203647794927</v>
@@ -20683,7 +20455,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.433903760665968</v>
+        <v>1.393348375090058</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.321429960264394</v>
@@ -20772,7 +20544,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.424117025780714</v>
+        <v>1.389403440017478</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.220100886060845</v>
@@ -20861,7 +20633,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.427462180532128</v>
+        <v>1.387941085538585</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.295647544191513</v>
@@ -20950,7 +20722,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.432784773062827</v>
+        <v>1.39205827448834</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.295076531718426</v>
@@ -21039,7 +20811,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.447625698523416</v>
+        <v>1.398667681210558</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.603497935159265</v>
@@ -21128,7 +20900,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.444737812399801</v>
+        <v>1.396093914552734</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.184239304932558</v>
@@ -21217,7 +20989,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.453402824796801</v>
+        <v>1.39773659601187</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.788738538030502</v>
@@ -21306,7 +21078,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.454969631449236</v>
+        <v>1.395246961248804</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.895339380952446</v>
@@ -21395,7 +21167,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.439476783427559</v>
+        <v>1.38466363626813</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.579111307674549</v>
@@ -21484,7 +21256,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.439331965557157</v>
+        <v>1.380814631665888</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.894601261128027</v>
@@ -21573,7 +21345,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.424366031221558</v>
+        <v>1.368113852076573</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.557108532769915</v>
@@ -21662,7 +21434,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.428119927558187</v>
+        <v>1.377977328570757</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.777492992937639</v>
@@ -21751,7 +21523,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.431240235964411</v>
+        <v>1.381094342796339</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.682838055556799</v>
@@ -21840,7 +21612,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.439389282824713</v>
+        <v>1.38744952540641</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.615244130266094</v>
@@ -21929,7 +21701,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.445819757567833</v>
+        <v>1.391960728462615</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.755785222975937</v>
@@ -22018,7 +21790,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.449758784551679</v>
+        <v>1.400260557610788</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.416015110731939</v>
@@ -22107,7 +21879,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.455382658865561</v>
+        <v>1.40200439610319</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.87902780041491</v>
@@ -22196,7 +21968,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.454311412581936</v>
+        <v>1.406315190178112</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.631508331668781</v>
@@ -22285,7 +22057,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.453946256084955</v>
+        <v>1.409450681632527</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.910358457098501</v>
@@ -22374,7 +22146,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.458443827135459</v>
+        <v>1.420608572602139</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.895573679187471</v>
@@ -22463,7 +22235,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.461660702775167</v>
+        <v>1.419805553148276</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.463656234267094</v>
@@ -22552,7 +22324,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.468309855235065</v>
+        <v>1.426310291884748</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.525913742017513</v>
@@ -22641,7 +22413,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.48545475654798</v>
+        <v>1.44319315598805</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.745653856152776</v>
@@ -22730,7 +22502,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.507862934529927</v>
+        <v>1.456596986219937</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.949874173832006</v>
@@ -22819,7 +22591,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.527308192971214</v>
+        <v>1.472555651984198</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.571895433530772</v>
@@ -22908,7 +22680,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.543323735002982</v>
+        <v>1.474180225444083</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.057845225640975</v>
@@ -22997,7 +22769,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551582429836109</v>
+        <v>1.478984644130623</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.909272674457142</v>
@@ -23086,7 +22858,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.551504947644637</v>
+        <v>1.482594819491349</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.48092372931928</v>
@@ -23175,7 +22947,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.563291774354582</v>
+        <v>1.488766080015496</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.577319990608254</v>
@@ -23264,7 +23036,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.554445092166015</v>
+        <v>1.481004120818205</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.990994165430303</v>
@@ -23353,7 +23125,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.547173001035455</v>
+        <v>1.472855825942995</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.440399545448206</v>
@@ -23442,7 +23214,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.547894443875153</v>
+        <v>1.466248325526987</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.032861578599463</v>
@@ -23531,7 +23303,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.542459674726843</v>
+        <v>1.461170815195521</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.287159725788125</v>
@@ -23620,7 +23392,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.546862143523459</v>
+        <v>1.462253424194049</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.174482242378347</v>
@@ -23709,7 +23481,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.528957835494618</v>
+        <v>1.44986036565148</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.983923421000953</v>
@@ -23798,7 +23570,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.528951471012221</v>
+        <v>1.457741289685416</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.84436764460444</v>
@@ -23887,7 +23659,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.530752695496179</v>
+        <v>1.458872327069821</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.104588633741452</v>
@@ -23976,7 +23748,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.518845490906066</v>
+        <v>1.451292030211792</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.812397075973085</v>
@@ -24065,7 +23837,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.516886867584519</v>
+        <v>1.450364130422231</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.796217089800877</v>
@@ -24154,7 +23926,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.518888684189496</v>
+        <v>1.448014353475713</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.110062911731734</v>
@@ -24243,7 +24015,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.520645414237618</v>
+        <v>1.452063923937551</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.143031019395774</v>
@@ -24332,7 +24104,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.509965135571615</v>
+        <v>1.443343950173454</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.096785687555983</v>
@@ -24421,7 +24193,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.517755904859787</v>
+        <v>1.450705072726905</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.987216708164954</v>
@@ -24510,7 +24282,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.513349167364691</v>
+        <v>1.441091737831756</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.129834834256207</v>
@@ -24599,7 +24371,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.514203688691326</v>
+        <v>1.440908252350094</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.037860028794054</v>
@@ -24688,7 +24460,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.501991534035803</v>
+        <v>1.440583831819319</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.974309044844463</v>
@@ -24777,7 +24549,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.501766762579053</v>
+        <v>1.4424874248096</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.909668143802453</v>
@@ -24866,7 +24638,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.495338395711866</v>
+        <v>1.437957413165632</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.929214701055001</v>
@@ -24955,7 +24727,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.492839220913452</v>
+        <v>1.424737513668405</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.648854592244495</v>
@@ -25044,7 +24816,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.506536841756566</v>
+        <v>1.427635497692219</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.937797449343079</v>
@@ -25133,7 +24905,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.500087605624109</v>
+        <v>1.418449179277598</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.023080055501189</v>
@@ -25222,7 +24994,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.468076807496023</v>
+        <v>1.396671222565377</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.672980895748791</v>
@@ -25311,7 +25083,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.47228844474096</v>
+        <v>1.397393616792715</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.637066233566073</v>
@@ -25400,7 +25172,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.467913304740167</v>
+        <v>1.39735140421636</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.655828752462319</v>
@@ -25489,7 +25261,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.46587470999701</v>
+        <v>1.396682029642843</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.682533631070505</v>
@@ -25578,7 +25350,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.463996720307992</v>
+        <v>1.396758239244738</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.700811212607894</v>
@@ -25667,7 +25439,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.462137501155651</v>
+        <v>1.393870361648284</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.552448524350338</v>
@@ -25756,7 +25528,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.457362385545559</v>
+        <v>1.386039851640737</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.616056765823843</v>
@@ -25845,7 +25617,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.462380315736603</v>
+        <v>1.393473802362445</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.666834073346324</v>
@@ -26131,7 +25903,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.459992939699552</v>
+        <v>1.413424837252792</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.278211495305288</v>
@@ -26220,7 +25992,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.468537035187735</v>
+        <v>1.421422886458471</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.379954232660366</v>
@@ -26309,7 +26081,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.500445400540352</v>
+        <v>1.449386284527216</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.416579805915027</v>
@@ -26398,7 +26170,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.480094525035328</v>
+        <v>1.441821197995085</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.285738708129823</v>
@@ -26487,7 +26259,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.47376653759133</v>
+        <v>1.437467741332895</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.436657941357492</v>
@@ -26576,7 +26348,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.467868066688433</v>
+        <v>1.434061568871835</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.376719552281954</v>
@@ -26665,7 +26437,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.480771660637652</v>
+        <v>1.449956605540544</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.249592177078992</v>
@@ -26754,7 +26526,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.475637372801733</v>
+        <v>1.456483858072922</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.326543758771634</v>
@@ -26843,7 +26615,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.482969757572914</v>
+        <v>1.460690423879966</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.272531521095447</v>
@@ -26932,7 +26704,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.484431326350542</v>
+        <v>1.462563758159459</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.252023637490933</v>
@@ -27021,7 +26793,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.495750168948508</v>
+        <v>1.472630162854023</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.396981610737838</v>
@@ -27110,7 +26882,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.506795337329251</v>
+        <v>1.477984842420336</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.338251249981284</v>
@@ -27199,7 +26971,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.509276663564253</v>
+        <v>1.480957311301003</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.34159441434</v>
@@ -27288,7 +27060,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.50342938626515</v>
+        <v>1.477073638051089</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.390028217763942</v>
@@ -27377,7 +27149,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.495062284781935</v>
+        <v>1.468865066720327</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.367132210361433</v>
@@ -27466,7 +27238,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.504222211772422</v>
+        <v>1.473196168529779</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.228247448066888</v>
@@ -27555,7 +27327,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.505442969060392</v>
+        <v>1.475124855064019</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.312990892597789</v>
@@ -27644,7 +27416,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.506336078780666</v>
+        <v>1.474261951444609</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.310283907594508</v>
@@ -27733,7 +27505,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.538888919338606</v>
+        <v>1.500195824435622</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.378781021273916</v>
@@ -27822,7 +27594,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.538052683105825</v>
+        <v>1.496650930061799</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.35497167720056</v>
@@ -27911,7 +27683,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.531708545950614</v>
+        <v>1.491954558588391</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.285828234650776</v>
@@ -28000,7 +27772,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.529488063704138</v>
+        <v>1.488560414178832</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.258946675302375</v>
@@ -28089,7 +27861,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.529034198949062</v>
+        <v>1.488229086557457</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.205912618435648</v>
@@ -28178,7 +27950,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.519245555105073</v>
+        <v>1.485590466487119</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.143056849620839</v>
@@ -28267,7 +28039,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.513863384805463</v>
+        <v>1.479520595028441</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.192179024117316</v>
@@ -28356,7 +28128,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.509506272967426</v>
+        <v>1.472421409864265</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.159655881308528</v>
@@ -28445,7 +28217,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.541011208637186</v>
+        <v>1.501549326894277</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.736342170043122</v>
@@ -28534,7 +28306,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.543617883387884</v>
+        <v>1.497815830064759</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.186690263750949</v>
@@ -28623,7 +28395,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.570836325470399</v>
+        <v>1.52201475585911</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.725716280604058</v>
@@ -28712,7 +28484,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.56962853927687</v>
+        <v>1.524675121826383</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.367215538999903</v>
@@ -28801,7 +28573,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.568396814565716</v>
+        <v>1.522454534384778</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.338716583133726</v>
@@ -28890,7 +28662,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.557406603331811</v>
+        <v>1.51078090028092</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.345089918380371</v>
@@ -28979,7 +28751,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.530997786899502</v>
+        <v>1.486214510667567</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.304398777779735</v>
@@ -29068,7 +28840,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.523108998869395</v>
+        <v>1.481385718148267</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.1703258127286</v>
@@ -29157,7 +28929,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.531052544817024</v>
+        <v>1.49086470502046</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.825681846785676</v>
@@ -29246,7 +29018,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.548756513288664</v>
+        <v>1.507522010371176</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.251141209002387</v>
@@ -29335,7 +29107,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.55378572905955</v>
+        <v>1.512148263364839</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.186150975182122</v>
@@ -29424,7 +29196,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.558880094363529</v>
+        <v>1.517469874292849</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.615444415873565</v>
@@ -29513,7 +29285,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.574978880667226</v>
+        <v>1.52972854182737</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.217097527505302</v>
@@ -29602,7 +29374,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.583219390829604</v>
+        <v>1.542578402281496</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.071447429432763</v>
@@ -29691,7 +29463,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.583367024628848</v>
+        <v>1.545166041415374</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.88586357589278</v>
@@ -29780,7 +29552,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.576687202084912</v>
+        <v>1.542915248362549</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.101619143401792</v>
@@ -29869,7 +29641,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.57719007449114</v>
+        <v>1.539453944653237</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.174116495059264</v>
@@ -29958,7 +29730,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.571613464636208</v>
+        <v>1.528716498942836</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.672484254493233</v>
@@ -30047,7 +29819,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.581332360953</v>
+        <v>1.537980273748892</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.206755865155857</v>
@@ -30136,7 +29908,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.594733210581673</v>
+        <v>1.545808025606376</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.316858336259086</v>
@@ -30225,7 +29997,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.619531819070098</v>
+        <v>1.556513242106716</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.714609691830201</v>
@@ -30314,7 +30086,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.635500704943172</v>
+        <v>1.565287365634475</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.36938438425681</v>
@@ -30403,7 +30175,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.645196118912314</v>
+        <v>1.574020349041225</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.379525202902914</v>
@@ -30492,7 +30264,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.648261110495887</v>
+        <v>1.573200410580839</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.193513051647301</v>
@@ -30581,7 +30353,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.62783067789123</v>
+        <v>1.545913961849822</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.540176924440576</v>
@@ -30670,7 +30442,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.625632177905267</v>
+        <v>1.540555210616055</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.681724360724334</v>
@@ -30759,7 +30531,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.631322905601753</v>
+        <v>1.538220402021938</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.463207304967127</v>
@@ -30848,7 +30620,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.623561455281537</v>
+        <v>1.530148364327991</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.557647973424839</v>
@@ -30937,7 +30709,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.607673514235481</v>
+        <v>1.517274729116346</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.417061852709268</v>
@@ -31026,7 +30798,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.618669442137752</v>
+        <v>1.528240382042285</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.439592426877027</v>
@@ -31115,7 +30887,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.627158609823408</v>
+        <v>1.535347972406503</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.481579833702879</v>
@@ -31204,7 +30976,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.639466078664602</v>
+        <v>1.555438001416584</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.325989645129961</v>
@@ -31293,7 +31065,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.657146400270511</v>
+        <v>1.568328036789961</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.024459250623121</v>
@@ -31382,7 +31154,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.654701556919908</v>
+        <v>1.564773568837367</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.458612876169284</v>
@@ -31471,7 +31243,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.652729790052489</v>
+        <v>1.566508919845923</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.417101082733433</v>
@@ -31560,7 +31332,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.652092303615397</v>
+        <v>1.576013099192339</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.20815305326897</v>
@@ -31649,7 +31421,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.647443126539647</v>
+        <v>1.570853119895788</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.185807424109148</v>
@@ -31738,7 +31510,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.639740771652513</v>
+        <v>1.563964694798674</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.401444092661382</v>
@@ -31827,7 +31599,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.640165669646863</v>
+        <v>1.562344796114489</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.994007566687865</v>
@@ -31916,7 +31688,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.654304224951703</v>
+        <v>1.578816546986069</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.112151540910328</v>
@@ -32005,7 +31777,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.645173938493599</v>
+        <v>1.57338953974392</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.957474918206056</v>
@@ -32094,7 +31866,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.647007235452161</v>
+        <v>1.578308945803852</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.58396263050781</v>
@@ -32183,7 +31955,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.643225206202163</v>
+        <v>1.574969407905695</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.18996657921726</v>
@@ -32272,7 +32044,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.646416429586612</v>
+        <v>1.575300223666886</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.111649490279541</v>
@@ -32361,7 +32133,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.628088578514859</v>
+        <v>1.544816531710113</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.622974574887162</v>
@@ -32450,7 +32222,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.61770938115525</v>
+        <v>1.530794303647373</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.579249264837369</v>
@@ -32539,7 +32311,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.608181938098372</v>
+        <v>1.524249171999438</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.029282582784195</v>
@@ -32628,7 +32400,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.547300253303358</v>
+        <v>1.482205499995102</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.212797500105994</v>
@@ -32717,7 +32489,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.544523782549673</v>
+        <v>1.484396561002601</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.242541461190445</v>
@@ -32806,7 +32578,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.526429041620871</v>
+        <v>1.472097536000274</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.208857501137963</v>
@@ -32895,7 +32667,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.515111248508002</v>
+        <v>1.460707041272931</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.222624822620038</v>
@@ -32984,7 +32756,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.519794853262814</v>
+        <v>1.468740623722901</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.216360542885181</v>
@@ -33073,7 +32845,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.523094515860836</v>
+        <v>1.469388359165708</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.166701356975029</v>
@@ -33162,7 +32934,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.516715869717943</v>
+        <v>1.463294259841618</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.232328825499061</v>
@@ -33251,7 +33023,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.516872853143389</v>
+        <v>1.465133070439285</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.199940469777632</v>
@@ -33537,7 +33309,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.494674973299063</v>
+        <v>1.452644683648788</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.350207127776504</v>
@@ -33626,7 +33398,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.497581912780322</v>
+        <v>1.456650595665268</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.419480915279297</v>
@@ -33715,7 +33487,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.52871509728756</v>
+        <v>1.480898328726596</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.392975362424089</v>
@@ -33804,7 +33576,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.508078405441512</v>
+        <v>1.467433821493434</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.392499244921834</v>
@@ -33893,7 +33665,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.504970889910045</v>
+        <v>1.464021728942477</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.444835652265859</v>
@@ -33982,7 +33754,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.499764218984337</v>
+        <v>1.460145065886945</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.388805707894501</v>
@@ -34071,7 +33843,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.508032035997381</v>
+        <v>1.467930851858256</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.364782828115065</v>
@@ -34160,7 +33932,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.506873627951249</v>
+        <v>1.476768778769176</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.360553720992867</v>
@@ -34249,7 +34021,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.514394696187007</v>
+        <v>1.485381743267154</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.23903796916718</v>
@@ -34338,7 +34110,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.513431798945973</v>
+        <v>1.481787003700221</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.2312198853317</v>
@@ -34427,7 +34199,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.51552768858773</v>
+        <v>1.483661116790312</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.385042537931563</v>
@@ -34516,7 +34288,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.507034407206675</v>
+        <v>1.472017029316672</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.342247581025456</v>
@@ -34605,7 +34377,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.502580328339204</v>
+        <v>1.473139769053954</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.366588562127381</v>
@@ -34694,7 +34466,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.492396002922941</v>
+        <v>1.465272079446703</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.337150300170987</v>
@@ -34783,7 +34555,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.4844378118442</v>
+        <v>1.455355735885753</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.365768251117319</v>
@@ -34872,7 +34644,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.491834292891697</v>
+        <v>1.459689369731366</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.22240030956394</v>
@@ -34961,7 +34733,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.490470107649926</v>
+        <v>1.457440705378472</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.296592248890746</v>
@@ -35050,7 +34822,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.482353321231983</v>
+        <v>1.450335172085277</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.317625944647809</v>
@@ -35139,7 +34911,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.502492478840498</v>
+        <v>1.46821919306924</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.336709360355569</v>
@@ -35228,7 +35000,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.49780501589847</v>
+        <v>1.46148007893349</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.326191108827785</v>
@@ -35317,7 +35089,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.496882311759675</v>
+        <v>1.461081264621667</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.263296130761552</v>
@@ -35406,7 +35178,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.497457936784853</v>
+        <v>1.457963182852093</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.236872529030087</v>
@@ -35495,7 +35267,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.491865970896256</v>
+        <v>1.455630508242843</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.206243231267968</v>
@@ -35584,7 +35356,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.486665997424457</v>
+        <v>1.44933949952899</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.135243285721667</v>
@@ -35673,7 +35445,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.484273481779334</v>
+        <v>1.447112401366563</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.15250287750325</v>
@@ -35762,7 +35534,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.48225530499101</v>
+        <v>1.444183810516969</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.121038512743815</v>
@@ -35851,7 +35623,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.515786797535251</v>
+        <v>1.472375589088897</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.490320316907628</v>
@@ -35940,7 +35712,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.523088204113269</v>
+        <v>1.476935609871324</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.154375494169816</v>
@@ -36029,7 +35801,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.540175648155601</v>
+        <v>1.492501051518783</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.699371473715972</v>
@@ -36118,7 +35890,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.543029659486199</v>
+        <v>1.497231193834137</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.794950822217864</v>
@@ -36207,7 +35979,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.534488153913871</v>
+        <v>1.487150506053785</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.971156330938356</v>
@@ -36296,7 +36068,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.534045695316283</v>
+        <v>1.490171613759138</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.900404007610737</v>
@@ -36385,7 +36157,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.525960051431135</v>
+        <v>1.480237492271585</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.777275474649397</v>
@@ -36474,7 +36246,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.524205398496763</v>
+        <v>1.480677759488633</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.653507504548268</v>
@@ -36563,7 +36335,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.529463252046015</v>
+        <v>1.479933409766204</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.538352025371689</v>
@@ -36652,7 +36424,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.533496036323118</v>
+        <v>1.48522782169441</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.756906038604465</v>
@@ -36741,7 +36513,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.531922419791517</v>
+        <v>1.485433521948737</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.726057897739371</v>
@@ -36830,7 +36602,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.533935102214558</v>
+        <v>1.486277664625691</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.633417652099098</v>
@@ -36919,7 +36691,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.546459451317763</v>
+        <v>1.501376515562263</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.606131638353003</v>
@@ -37008,7 +36780,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.557493296169711</v>
+        <v>1.521257452875016</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.80495026897671</v>
@@ -37097,7 +36869,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.567709938769151</v>
+        <v>1.530810576157648</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.496596144567722</v>
@@ -37186,7 +36958,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.573854739545163</v>
+        <v>1.5401592615669</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.601785748380578</v>
@@ -37275,7 +37047,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.571642423348213</v>
+        <v>1.537423297239514</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.679788664202558</v>
@@ -37364,7 +37136,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.572153412013973</v>
+        <v>1.536848488519378</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.699859565738138</v>
@@ -37453,7 +37225,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.578660490826336</v>
+        <v>1.543171618539921</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.873468192965905</v>
@@ -37542,7 +37314,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.599513367499384</v>
+        <v>1.553060225623764</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.802645450402589</v>
@@ -37631,7 +37403,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.613809617694385</v>
+        <v>1.559838606544004</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.368563321885414</v>
@@ -37720,7 +37492,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.611485773300287</v>
+        <v>1.549246217934969</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.54148394845476</v>
@@ -37809,7 +37581,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.620609725288323</v>
+        <v>1.552970162456151</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.399235091196374</v>
@@ -37898,7 +37670,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.612537129655063</v>
+        <v>1.554387787787472</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.368187775310397</v>
@@ -37987,7 +37759,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.613586097897167</v>
+        <v>1.551956124278968</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.327176952930444</v>
@@ -38076,7 +37848,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.620842989219283</v>
+        <v>1.556075612621609</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.112064711714097</v>
@@ -38165,7 +37937,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.627615243928226</v>
+        <v>1.558216320505101</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.286460585207696</v>
@@ -38254,7 +38026,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.613828571090883</v>
+        <v>1.541377417082186</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.190270463562261</v>
@@ -38343,7 +38115,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.604521867634978</v>
+        <v>1.525588133244129</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.203832373795267</v>
@@ -38432,7 +38204,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.60227016848083</v>
+        <v>1.520508700222124</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.349561859453502</v>
@@ -38521,7 +38293,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.59468870173703</v>
+        <v>1.51473572191937</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.968022085873381</v>
@@ -38610,7 +38382,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.604771265057745</v>
+        <v>1.521244250669358</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.241143945763993</v>
@@ -38699,7 +38471,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.615983392825492</v>
+        <v>1.527209901987463</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.040129520611488</v>
@@ -38788,7 +38560,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.605467250908784</v>
+        <v>1.524948277949991</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.22884882437133</v>
@@ -38877,7 +38649,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.604315680994069</v>
+        <v>1.526621650717269</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.952125103647546</v>
@@ -38966,7 +38738,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.619638208148639</v>
+        <v>1.539633513038846</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.006137563979537</v>
@@ -39055,7 +38827,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.61756069826326</v>
+        <v>1.541319446471747</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.289522109072482</v>
@@ -39144,7 +38916,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.613910839791648</v>
+        <v>1.533323466989231</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.965731020924768</v>
@@ -39233,7 +39005,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.620829382643681</v>
+        <v>1.53072829222324</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.324291622334979</v>
@@ -39322,7 +39094,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.621141043156533</v>
+        <v>1.521506955923604</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.229703285006142</v>
@@ -39411,7 +39183,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.613690492050757</v>
+        <v>1.511870797673495</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.833246163469716</v>
@@ -39500,7 +39272,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.61671941928157</v>
+        <v>1.518738485037796</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.30921995276181</v>
@@ -39589,7 +39361,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.62703595946726</v>
+        <v>1.534287751076362</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.267754755508586</v>
@@ -39678,7 +39450,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.621681123921564</v>
+        <v>1.533197768018458</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.10390557183161</v>
@@ -39767,7 +39539,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.61900794849927</v>
+        <v>1.522973807339452</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.337962441508169</v>
@@ -39856,7 +39628,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.577077590972738</v>
+        <v>1.489965282551342</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.416498117606728</v>
@@ -39945,7 +39717,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.557936262449161</v>
+        <v>1.47193684286435</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.382909584271581</v>
@@ -40034,7 +39806,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.517346364080625</v>
+        <v>1.445438613685974</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.164809166166437</v>
@@ -40123,7 +39895,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.510354420800313</v>
+        <v>1.44177749710368</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.268731787803312</v>
@@ -40212,7 +39984,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.388563925770122</v>
+        <v>1.331411702417253</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.570933589857158</v>
@@ -40301,7 +40073,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.323941880983039</v>
+        <v>1.290952543267661</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.582233671548818</v>
@@ -40390,7 +40162,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.324439349421235</v>
+        <v>1.29553690435314</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.580499930638859</v>
@@ -40479,7 +40251,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.323778526843825</v>
+        <v>1.294220417871508</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.580647925851556</v>
@@ -40568,7 +40340,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.326628733952973</v>
+        <v>1.296754257266633</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.580326102532865</v>
@@ -40657,7 +40429,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.321505731291959</v>
+        <v>1.299426207287117</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.578452982129426</v>
@@ -40943,7 +40715,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.148282119461736</v>
+        <v>1.109108006292866</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.98697930546035</v>
@@ -41032,7 +40804,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.144378645862061</v>
+        <v>1.111118987831717</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.950039511409448</v>
@@ -41121,7 +40893,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.138067231017885</v>
+        <v>1.103975921574911</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.980290473749222</v>
@@ -41210,7 +40982,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.131373534131211</v>
+        <v>1.101536279065785</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.951940406080811</v>
@@ -41299,7 +41071,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.135800529995684</v>
+        <v>1.107944569093959</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.811989152253434</v>
@@ -41388,7 +41160,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.143487089572918</v>
+        <v>1.116573593749333</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.980456169488795</v>
@@ -41477,7 +41249,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.1477251698948</v>
+        <v>1.121373355607243</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.865868682865083</v>
@@ -41566,7 +41338,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.149811041460125</v>
+        <v>1.1273035479505</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.901859200520352</v>
@@ -41655,7 +41427,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.150010023526709</v>
+        <v>1.127971344162501</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.866879467116231</v>
@@ -41744,7 +41516,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.151734004274756</v>
+        <v>1.128588098976228</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.94063750644501</v>
@@ -41833,7 +41605,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.151434803302707</v>
+        <v>1.128930417560534</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.822719512126983</v>
@@ -41922,7 +41694,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.176461192613301</v>
+        <v>1.160112753360114</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.034713258979928</v>
@@ -42011,7 +41783,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.185362702091553</v>
+        <v>1.170969052901023</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.945553228706299</v>
@@ -42100,7 +41872,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.192098344555606</v>
+        <v>1.180207948441422</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.873244716625239</v>
@@ -42189,7 +41961,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.193745279390257</v>
+        <v>1.18159772126958</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.991545323683567</v>
@@ -42278,7 +42050,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.199569001119505</v>
+        <v>1.188620069384352</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.944545994557712</v>
@@ -42367,7 +42139,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.221216245728986</v>
+        <v>1.209987455487078</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.896727396070824</v>
@@ -42456,7 +42228,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.270657907543613</v>
+        <v>1.263491729115497</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.825197859713926</v>
@@ -42545,7 +42317,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.289878451219393</v>
+        <v>1.278085026203666</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.233496191239183</v>
@@ -42634,7 +42406,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.279399696023598</v>
+        <v>1.263436191217306</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.98061724585485</v>
@@ -42723,7 +42495,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.22149011037418</v>
+        <v>1.200563226529371</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.978363064346463</v>
@@ -42812,7 +42584,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.18896803802586</v>
+        <v>1.174904100146913</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.935412032369476</v>
@@ -42901,7 +42673,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.175060599498385</v>
+        <v>1.153809567688162</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.942186679848915</v>
@@ -42990,7 +42762,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.165237019289711</v>
+        <v>1.143965048331038</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.012391828667295</v>
@@ -43079,7 +42851,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.163417471117951</v>
+        <v>1.142783808194621</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.051658739730414</v>
@@ -43168,7 +42940,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.163756463568648</v>
+        <v>1.141168807411056</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.077284010569506</v>
@@ -43257,7 +43029,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.154570288279571</v>
+        <v>1.131439752718465</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.989494552056441</v>
@@ -43346,7 +43118,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.143427248309137</v>
+        <v>1.119216437816579</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.004111453052713</v>
@@ -43435,7 +43207,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.155556758091818</v>
+        <v>1.131611833490577</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.029684794015667</v>
@@ -43524,7 +43296,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.1297232266871</v>
+        <v>1.103446197872831</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.102950012580005</v>
@@ -43613,7 +43385,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.126512434762993</v>
+        <v>1.099129783213704</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.13894875934612</v>
@@ -43702,7 +43474,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.132494590670901</v>
+        <v>1.098189383740783</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.045556236249542</v>
@@ -43791,7 +43563,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.104455820682095</v>
+        <v>1.074162762262936</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.100344013326854</v>
@@ -43880,7 +43652,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.104164387951571</v>
+        <v>1.073410791298405</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.065535450823515</v>
@@ -43969,7 +43741,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.112779266884154</v>
+        <v>1.080397618453864</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.946316032189422</v>
@@ -44058,7 +43830,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.120073791041809</v>
+        <v>1.088736663081606</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.83648787702087</v>
@@ -44147,7 +43919,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.122682711376578</v>
+        <v>1.089145636376881</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.985190599937836</v>
@@ -44236,7 +44008,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.1175334697983</v>
+        <v>1.087620768294085</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.932066406434126</v>
@@ -44325,7 +44097,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.117915115897037</v>
+        <v>1.090696196536002</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.860315035432878</v>
@@ -44414,7 +44186,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.118986934468113</v>
+        <v>1.095074922346219</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.906852646668821</v>
@@ -44503,7 +44275,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.114402759176386</v>
+        <v>1.091445205111773</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.942246926464117</v>
@@ -44592,7 +44364,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.117593312171036</v>
+        <v>1.095169275675024</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.934443363833969</v>
@@ -44681,7 +44453,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.121090259640714</v>
+        <v>1.096701242200675</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.802462855190493</v>
@@ -44770,7 +44542,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.121190923536212</v>
+        <v>1.095458212707436</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.727306798137728</v>
@@ -44859,7 +44631,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.131908113418542</v>
+        <v>1.108583549897095</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.818756817550889</v>
@@ -44948,7 +44720,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.137655375488934</v>
+        <v>1.113802221917435</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.783734442878119</v>
@@ -45037,7 +44809,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.153002200725716</v>
+        <v>1.131190269367858</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.730873360708982</v>
@@ -45126,7 +44898,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.164615524435137</v>
+        <v>1.143564632285033</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.061622270942927</v>
@@ -45215,7 +44987,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.163733839566673</v>
+        <v>1.144542740782918</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.100286088144704</v>
@@ -45304,7 +45076,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.153140902066805</v>
+        <v>1.131716233814614</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.092025227617485</v>
@@ -45393,7 +45165,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.151139667131364</v>
+        <v>1.129638061882019</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.29317512048606</v>
@@ -45482,7 +45254,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.15801582938473</v>
+        <v>1.137078907308108</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.966336957040268</v>
@@ -45571,7 +45343,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.166023406069612</v>
+        <v>1.143873014107087</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.178636191590312</v>
@@ -45660,7 +45432,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.177185705050075</v>
+        <v>1.153323327811507</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.078584422177652</v>
@@ -45749,7 +45521,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.173513467517658</v>
+        <v>1.145206550839753</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.196332518776929</v>
@@ -45838,7 +45610,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.183214747138716</v>
+        <v>1.155208819001586</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.166708002405366</v>
@@ -45927,7 +45699,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.193326129244986</v>
+        <v>1.165385563321287</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.119800751633223</v>
@@ -46016,7 +45788,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.204080862116118</v>
+        <v>1.179431110992469</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.099831232062138</v>
@@ -46105,7 +45877,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.212944505090458</v>
+        <v>1.198502431702433</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.200516956291336</v>
@@ -46194,7 +45966,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.219585543718261</v>
+        <v>1.205232733973971</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.101062310309779</v>
@@ -46283,7 +46055,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.223719883840551</v>
+        <v>1.210925905182376</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.038251782659356</v>
@@ -46372,7 +46144,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.23058223785175</v>
+        <v>1.218967839044499</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.061873475399064</v>
@@ -46461,7 +46233,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.242895586731688</v>
+        <v>1.229084175413244</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.044028121007065</v>
@@ -46550,7 +46322,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.239597652472741</v>
+        <v>1.224240853162831</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.827636991418802</v>
@@ -46639,7 +46411,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.276817837994072</v>
+        <v>1.26178781386973</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.299035385011331</v>
@@ -46728,7 +46500,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.289362133179461</v>
+        <v>1.273815531531479</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.40222647280202</v>
@@ -46817,7 +46589,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.298440699624364</v>
+        <v>1.279249196607687</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.323362032423359</v>
@@ -46906,7 +46678,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.280228366410727</v>
+        <v>1.269877330881743</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.410188106386322</v>
@@ -46995,7 +46767,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.278191807145547</v>
+        <v>1.268007888541087</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.358565964752414</v>
@@ -47084,7 +46856,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.29223828026677</v>
+        <v>1.279389672431402</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.293678112447339</v>
@@ -47173,7 +46945,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.266052482420475</v>
+        <v>1.255350003126462</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.086379173168584</v>
@@ -47262,7 +47034,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.263990581645519</v>
+        <v>1.248841005913388</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.227836341975213</v>
@@ -47351,7 +47123,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.241556177371705</v>
+        <v>1.218716378989687</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.109993275357764</v>
@@ -47440,7 +47212,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.243281098988124</v>
+        <v>1.222809810956833</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.242590054562994</v>
@@ -47529,7 +47301,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.249469081478063</v>
+        <v>1.226216983620291</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.306845837026943</v>
@@ -47618,7 +47390,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.243087247984303</v>
+        <v>1.220457089802681</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.191359829637828</v>
@@ -47707,7 +47479,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.236879547909486</v>
+        <v>1.214485217476702</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.32970458072462</v>
@@ -47796,7 +47568,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.23368984459135</v>
+        <v>1.20992779823816</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.226679621622223</v>
@@ -47885,7 +47657,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.245481344059591</v>
+        <v>1.220654733633725</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.239670556838723</v>
@@ -47974,7 +47746,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.229193001445721</v>
+        <v>1.205614830324657</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.323478162152693</v>
@@ -48063,7 +47835,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.227430123430413</v>
+        <v>1.20718518603251</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.319562464670245</v>
